--- a/header_files/spec_header.xlsx
+++ b/header_files/spec_header.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shann\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D61BF0B3-93E5-4BD1-99D9-90B603A9D907}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1C2BFF-DA1A-4921-B759-8079FC117D56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3360" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="3360" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CARB" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="404">
   <si>
     <t>V1</t>
   </si>
@@ -982,9 +982,6 @@
     <t>cart_b_ec3_b</t>
   </si>
   <si>
-    <t>cart_b_ec_b</t>
-  </si>
-  <si>
     <t>cart_a_tc_a</t>
   </si>
   <si>
@@ -1250,6 +1247,9 @@
   </si>
   <si>
     <t>media_T_speciation_mass_ug_m4</t>
+  </si>
+  <si>
+    <t>cart_b_ec_b_mdl</t>
   </si>
 </sst>
 </file>
@@ -1592,7 +1592,7 @@
   <dimension ref="A1:AL5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AA42" sqref="AA42"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1881,133 +1881,127 @@
       <c r="AB3" t="s">
         <v>313</v>
       </c>
-      <c r="AC3" t="s">
-        <v>308</v>
-      </c>
-      <c r="AD3" t="s">
+      <c r="AG3" t="s">
         <v>314</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>315</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
         <v>316</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
         <v>317</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AK3" t="s">
         <v>318</v>
       </c>
-      <c r="AK3" t="s">
-        <v>319</v>
-      </c>
       <c r="AL3" t="s">
-        <v>318</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="N4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="P4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Q4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="R4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="S4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="T4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="U4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="V4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="W4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="X4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Y4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Z4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AA4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AB4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AC4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AD4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AE4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AG4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AH4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AI4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AJ4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AK4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AL4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
@@ -2024,106 +2018,106 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Q5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="R5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="S5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="T5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="U5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="V5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="W5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="X5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Y5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Z5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AA5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AB5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AC5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AD5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AE5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AG5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AH5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AI5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AJ5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AK5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AL5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -2688,10 +2682,10 @@
     </row>
     <row r="3" spans="1:90" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
+        <v>401</v>
+      </c>
+      <c r="F3" t="s">
         <v>402</v>
-      </c>
-      <c r="F3" t="s">
-        <v>403</v>
       </c>
       <c r="G3" t="s">
         <v>131</v>
@@ -2700,10 +2694,10 @@
         <v>132</v>
       </c>
       <c r="I3" t="s">
+        <v>363</v>
+      </c>
+      <c r="J3" t="s">
         <v>364</v>
-      </c>
-      <c r="J3" t="s">
-        <v>365</v>
       </c>
       <c r="K3" t="s">
         <v>135</v>
@@ -2712,10 +2706,10 @@
         <v>136</v>
       </c>
       <c r="M3" t="s">
+        <v>365</v>
+      </c>
+      <c r="N3" t="s">
         <v>366</v>
-      </c>
-      <c r="N3" t="s">
-        <v>367</v>
       </c>
       <c r="O3" t="s">
         <v>139</v>
@@ -2724,10 +2718,10 @@
         <v>140</v>
       </c>
       <c r="Q3" t="s">
+        <v>367</v>
+      </c>
+      <c r="R3" t="s">
         <v>368</v>
-      </c>
-      <c r="R3" t="s">
-        <v>369</v>
       </c>
       <c r="S3" t="s">
         <v>143</v>
@@ -2736,10 +2730,10 @@
         <v>144</v>
       </c>
       <c r="U3" t="s">
+        <v>369</v>
+      </c>
+      <c r="V3" t="s">
         <v>370</v>
-      </c>
-      <c r="V3" t="s">
-        <v>371</v>
       </c>
       <c r="W3" t="s">
         <v>147</v>
@@ -2760,10 +2754,10 @@
         <v>152</v>
       </c>
       <c r="AC3" t="s">
+        <v>371</v>
+      </c>
+      <c r="AD3" t="s">
         <v>372</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>373</v>
       </c>
       <c r="AE3" t="s">
         <v>155</v>
@@ -2772,10 +2766,10 @@
         <v>156</v>
       </c>
       <c r="AG3" t="s">
+        <v>373</v>
+      </c>
+      <c r="AH3" t="s">
         <v>374</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>375</v>
       </c>
       <c r="AI3" t="s">
         <v>159</v>
@@ -2784,10 +2778,10 @@
         <v>160</v>
       </c>
       <c r="AK3" t="s">
+        <v>375</v>
+      </c>
+      <c r="AL3" t="s">
         <v>376</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>377</v>
       </c>
       <c r="AM3" t="s">
         <v>163</v>
@@ -2796,10 +2790,10 @@
         <v>164</v>
       </c>
       <c r="AO3" t="s">
+        <v>377</v>
+      </c>
+      <c r="AP3" t="s">
         <v>378</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>379</v>
       </c>
       <c r="AQ3" t="s">
         <v>167</v>
@@ -2808,10 +2802,10 @@
         <v>168</v>
       </c>
       <c r="AS3" t="s">
+        <v>379</v>
+      </c>
+      <c r="AT3" t="s">
         <v>380</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>381</v>
       </c>
       <c r="AU3" t="s">
         <v>171</v>
@@ -2820,10 +2814,10 @@
         <v>172</v>
       </c>
       <c r="AW3" t="s">
+        <v>381</v>
+      </c>
+      <c r="AX3" t="s">
         <v>382</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>383</v>
       </c>
       <c r="AY3" t="s">
         <v>213</v>
@@ -2832,10 +2826,10 @@
         <v>214</v>
       </c>
       <c r="BA3" t="s">
+        <v>383</v>
+      </c>
+      <c r="BB3" t="s">
         <v>384</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>385</v>
       </c>
       <c r="BC3" t="s">
         <v>177</v>
@@ -2844,10 +2838,10 @@
         <v>178</v>
       </c>
       <c r="BE3" t="s">
+        <v>385</v>
+      </c>
+      <c r="BF3" t="s">
         <v>386</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>387</v>
       </c>
       <c r="BG3" t="s">
         <v>181</v>
@@ -2856,10 +2850,10 @@
         <v>182</v>
       </c>
       <c r="BI3" t="s">
+        <v>387</v>
+      </c>
+      <c r="BJ3" t="s">
         <v>388</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>389</v>
       </c>
       <c r="BK3" t="s">
         <v>185</v>
@@ -2868,10 +2862,10 @@
         <v>186</v>
       </c>
       <c r="BM3" t="s">
+        <v>389</v>
+      </c>
+      <c r="BN3" t="s">
         <v>390</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>391</v>
       </c>
       <c r="BO3" t="s">
         <v>189</v>
@@ -2880,10 +2874,10 @@
         <v>190</v>
       </c>
       <c r="BQ3" t="s">
+        <v>391</v>
+      </c>
+      <c r="BR3" t="s">
         <v>392</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>393</v>
       </c>
       <c r="BS3" t="s">
         <v>193</v>
@@ -2892,10 +2886,10 @@
         <v>194</v>
       </c>
       <c r="BU3" t="s">
+        <v>393</v>
+      </c>
+      <c r="BV3" t="s">
         <v>394</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>395</v>
       </c>
       <c r="BW3" t="s">
         <v>197</v>
@@ -2916,10 +2910,10 @@
         <v>202</v>
       </c>
       <c r="CC3" t="s">
+        <v>395</v>
+      </c>
+      <c r="CD3" t="s">
         <v>396</v>
-      </c>
-      <c r="CD3" t="s">
-        <v>397</v>
       </c>
       <c r="CE3" t="s">
         <v>205</v>
@@ -2928,10 +2922,10 @@
         <v>206</v>
       </c>
       <c r="CG3" t="s">
+        <v>397</v>
+      </c>
+      <c r="CH3" t="s">
         <v>398</v>
-      </c>
-      <c r="CH3" t="s">
-        <v>399</v>
       </c>
       <c r="CI3" t="s">
         <v>209</v>
@@ -2940,270 +2934,270 @@
         <v>210</v>
       </c>
       <c r="CK3" t="s">
+        <v>399</v>
+      </c>
+      <c r="CL3" t="s">
         <v>400</v>
-      </c>
-      <c r="CL3" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:90" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="R4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="S4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="V4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="W4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="X4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Y4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Z4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AA4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AB4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AC4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AD4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AE4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AF4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AG4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AH4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AI4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AJ4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AK4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AL4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AM4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AN4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AO4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AP4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AQ4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AR4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AS4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AT4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AU4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AV4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AW4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AX4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AY4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AZ4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BA4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BB4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BC4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BD4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BE4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BF4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BG4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BH4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BI4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BJ4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BK4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BL4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BM4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BN4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BO4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BP4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BQ4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BR4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BS4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BT4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BU4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BV4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BW4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BX4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BY4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BZ4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="CA4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="CB4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="CC4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="CD4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="CE4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="CF4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="CG4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="CH4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="CI4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="CJ4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="CK4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="CL4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:90" x14ac:dyDescent="0.25">
@@ -3220,262 +3214,262 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Q5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="R5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="S5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="T5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="U5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="V5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="W5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="X5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Y5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Z5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AA5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AB5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AC5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AD5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AE5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AG5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AH5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AI5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AJ5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AK5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AL5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AM5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AN5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AO5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AP5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AQ5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AR5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AS5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AT5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AU5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AV5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AW5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AX5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AY5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AZ5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BA5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BB5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BC5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BD5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BE5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BF5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BG5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BH5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BI5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BJ5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BK5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BL5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BM5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BN5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BO5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BP5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BQ5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BR5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BS5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BT5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BU5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BV5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BW5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BX5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BY5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BZ5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="CA5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="CB5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="CC5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="CD5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="CE5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="CF5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="CG5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="CH5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="CI5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="CJ5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="CK5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="CL5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -3537,18 +3531,18 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
+        <v>326</v>
+      </c>
+      <c r="F3" t="s">
         <v>327</v>
-      </c>
-      <c r="F3" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3565,10 +3559,10 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -3581,8 +3575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3736,31 +3730,34 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="P3" t="s">
+        <v>329</v>
+      </c>
       <c r="Q3" t="s">
-        <v>330</v>
-      </c>
-      <c r="R3" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="P4" t="s">
+        <v>330</v>
+      </c>
       <c r="Q4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="R4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="S4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="T4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="V4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -3777,67 +3774,68 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Q5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="R5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="S5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="T5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="U5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="V5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="W5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="X5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -4165,25 +4163,25 @@
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G3" t="s">
         <v>239</v>
       </c>
       <c r="H3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I3" t="s">
         <v>241</v>
       </c>
       <c r="J3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K3" t="s">
         <v>243</v>
       </c>
       <c r="L3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M3" t="s">
         <v>245</v>
@@ -4192,106 +4190,106 @@
         <v>246</v>
       </c>
       <c r="O3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P3" t="s">
         <v>248</v>
       </c>
       <c r="Q3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="R3" t="s">
         <v>250</v>
       </c>
       <c r="S3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="T3" t="s">
         <v>252</v>
       </c>
       <c r="U3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="V3" t="s">
         <v>254</v>
       </c>
       <c r="W3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="X3" t="s">
         <v>256</v>
       </c>
       <c r="Y3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Z3" t="s">
         <v>258</v>
       </c>
       <c r="AA3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB3" t="s">
         <v>260</v>
       </c>
       <c r="AC3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AD3" t="s">
         <v>262</v>
       </c>
       <c r="AE3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AF3" t="s">
         <v>264</v>
       </c>
       <c r="AG3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AH3" t="s">
         <v>266</v>
       </c>
       <c r="AI3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AJ3" t="s">
         <v>268</v>
       </c>
       <c r="AK3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AL3" t="s">
         <v>270</v>
       </c>
       <c r="AM3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AN3" t="s">
         <v>272</v>
       </c>
       <c r="AO3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AP3" t="s">
         <v>274</v>
       </c>
       <c r="AQ3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AR3" t="s">
         <v>276</v>
       </c>
       <c r="AS3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AT3" t="s">
         <v>278</v>
       </c>
       <c r="AU3" t="s">
+        <v>351</v>
+      </c>
+      <c r="AV3" t="s">
         <v>352</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>353</v>
       </c>
       <c r="AW3" t="s">
         <v>281</v>
@@ -4299,142 +4297,142 @@
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="P4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Q4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="R4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="S4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="T4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="U4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="V4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="W4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="X4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Y4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Z4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AA4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AB4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AC4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AD4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AE4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AF4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AG4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AH4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AI4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AJ4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AK4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AL4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AM4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AN4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AO4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AP4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AQ4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AR4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AS4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AT4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AU4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AV4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AW4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AX4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.25">
@@ -4451,145 +4449,145 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Q5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="R5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="S5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="T5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="U5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="V5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="W5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="X5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Y5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Z5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AA5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AB5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AC5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AD5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AE5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AG5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AH5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AI5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AJ5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AK5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AL5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AM5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AN5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AO5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AP5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AQ5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AR5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AS5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AT5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AU5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AV5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AW5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AX5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AY5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -4884,7 +4882,7 @@
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G3" t="s">
         <v>239</v>
@@ -4893,237 +4891,237 @@
         <v>243</v>
       </c>
       <c r="I3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J3" t="s">
         <v>278</v>
       </c>
       <c r="K3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L3" t="s">
         <v>245</v>
       </c>
       <c r="M3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N3" t="s">
         <v>246</v>
       </c>
       <c r="O3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P3" t="s">
         <v>248</v>
       </c>
       <c r="Q3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="R3" t="s">
         <v>250</v>
       </c>
       <c r="S3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="T3" t="s">
         <v>252</v>
       </c>
       <c r="U3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="V3" t="s">
         <v>254</v>
       </c>
       <c r="W3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="X3" t="s">
         <v>256</v>
       </c>
       <c r="Y3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Z3" t="s">
         <v>281</v>
       </c>
       <c r="AA3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AB3" t="s">
         <v>258</v>
       </c>
       <c r="AC3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AD3" t="s">
         <v>260</v>
       </c>
       <c r="AE3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF3" t="s">
         <v>262</v>
       </c>
       <c r="AG3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AH3" t="s">
         <v>264</v>
       </c>
       <c r="AI3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AJ3" t="s">
         <v>266</v>
       </c>
       <c r="AK3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AL3" t="s">
         <v>268</v>
       </c>
       <c r="AM3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AN3" t="s">
         <v>270</v>
       </c>
       <c r="AO3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AP3" t="s">
         <v>272</v>
       </c>
       <c r="AQ3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AR3" t="s">
         <v>274</v>
       </c>
       <c r="AS3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="O4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="P4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Q4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="S4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="T4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="U4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="V4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="W4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="X4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Y4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Z4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AA4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AB4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AC4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AD4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AE4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AF4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AG4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AH4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AI4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AJ4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AK4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AL4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AM4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AN4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AO4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AP4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AQ4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AR4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AS4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.25">
@@ -5140,127 +5138,127 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Q5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="R5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="S5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="T5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="U5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="V5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="W5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="X5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Y5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Z5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AA5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AB5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AC5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AD5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AE5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AG5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AH5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AI5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AJ5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AK5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AL5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AM5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AN5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AO5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AP5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AQ5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AR5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AS5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -5348,39 +5346,39 @@
         <v>283</v>
       </c>
       <c r="F3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G3" t="s">
         <v>222</v>
       </c>
       <c r="H3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I3" t="s">
         <v>219</v>
       </c>
       <c r="J3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -5397,22 +5395,22 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -5425,7 +5423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
@@ -5524,63 +5522,63 @@
         <v>287</v>
       </c>
       <c r="F3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G3" t="s">
         <v>289</v>
       </c>
       <c r="H3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I3" t="s">
         <v>291</v>
       </c>
       <c r="J3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K3" t="s">
         <v>293</v>
       </c>
       <c r="L3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="M3" t="s">
         <v>295</v>
       </c>
       <c r="N3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="M4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -5597,34 +5595,34 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="L5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="N5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>

--- a/header_files/spec_header.xlsx
+++ b/header_files/spec_header.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shann\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1C2BFF-DA1A-4921-B759-8079FC117D56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C911AB8-8AA8-4B06-9BFF-58BFCEE9D15E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3360" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="3360" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CARB" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="432">
   <si>
     <t>V1</t>
   </si>
@@ -1250,6 +1250,90 @@
   </si>
   <si>
     <t>cart_b_ec_b_mdl</t>
+  </si>
+  <si>
+    <t>oc1</t>
+  </si>
+  <si>
+    <t>oc2</t>
+  </si>
+  <si>
+    <t>oc3</t>
+  </si>
+  <si>
+    <t>oc4</t>
+  </si>
+  <si>
+    <t>poc_r</t>
+  </si>
+  <si>
+    <t>poc_t</t>
+  </si>
+  <si>
+    <t>oc_r</t>
+  </si>
+  <si>
+    <t>oc_t</t>
+  </si>
+  <si>
+    <t>ec1</t>
+  </si>
+  <si>
+    <t>ec2</t>
+  </si>
+  <si>
+    <t>ec_t</t>
+  </si>
+  <si>
+    <t>ec_r</t>
+  </si>
+  <si>
+    <t>tc</t>
+  </si>
+  <si>
+    <t>oc_dl</t>
+  </si>
+  <si>
+    <t>ec_dl</t>
+  </si>
+  <si>
+    <t>cart_fb_oc1_fb</t>
+  </si>
+  <si>
+    <t>cart_fb_oc2_fb</t>
+  </si>
+  <si>
+    <t>cart_fb_oc3_fb</t>
+  </si>
+  <si>
+    <t>cart_fb_oc4_fb</t>
+  </si>
+  <si>
+    <t>cart_fb_poc_fb</t>
+  </si>
+  <si>
+    <t>cart_fb_oc_fb</t>
+  </si>
+  <si>
+    <t>cart_fb_ec_fb</t>
+  </si>
+  <si>
+    <t>cart_fb_ec2_fb</t>
+  </si>
+  <si>
+    <t>cart_fb_ec3_fb</t>
+  </si>
+  <si>
+    <t>cart_fb_tc_fb</t>
+  </si>
+  <si>
+    <t>cart_fb_oc_fb_mdl</t>
+  </si>
+  <si>
+    <t>cart_fb_ec_fb_mdl</t>
+  </si>
+  <si>
+    <t>ec3</t>
   </si>
 </sst>
 </file>
@@ -1589,15 +1673,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL5"/>
+  <dimension ref="A1:BC5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AT15" sqref="AT15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1713,7 +1797,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -1828,8 +1912,59 @@
       <c r="AL2" t="s">
         <v>75</v>
       </c>
+      <c r="AM2" t="s">
+        <v>218</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>404</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>405</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>406</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>407</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>408</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>409</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>410</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>412</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>413</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>431</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>414</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>415</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>416</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>417</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="G3" t="s">
         <v>297</v>
       </c>
@@ -1899,8 +2034,44 @@
       <c r="AL3" t="s">
         <v>403</v>
       </c>
+      <c r="AN3" t="s">
+        <v>419</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>420</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>421</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>422</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>423</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>424</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>425</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>426</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>427</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>428</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>429</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>430</v>
+      </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>319</v>
       </c>
@@ -2003,8 +2174,59 @@
       <c r="AL4" t="s">
         <v>319</v>
       </c>
+      <c r="AM4" t="s">
+        <v>319</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>319</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>319</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>319</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>319</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>319</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>319</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>319</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>319</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>319</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>319</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>319</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>319</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>319</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>319</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>319</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -3575,7 +3797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>

--- a/header_files/spec_header.xlsx
+++ b/header_files/spec_header.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shann\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C911AB8-8AA8-4B06-9BFF-58BFCEE9D15E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B3DC05-AD32-48E4-82C3-0ECBDB0EB98B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3360" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="3360" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CARB" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="439">
   <si>
     <t>V1</t>
   </si>
@@ -1027,9 +1027,6 @@
     <t>Ammonia_IC</t>
   </si>
   <si>
-    <t>pres</t>
-  </si>
-  <si>
     <t>PM2.5</t>
   </si>
   <si>
@@ -1334,6 +1331,30 @@
   </si>
   <si>
     <t>ec3</t>
+  </si>
+  <si>
+    <t>spec_pm2_5</t>
+  </si>
+  <si>
+    <t>dich_pm2_5</t>
+  </si>
+  <si>
+    <t>spec_pres</t>
+  </si>
+  <si>
+    <t>spec_temp</t>
+  </si>
+  <si>
+    <t>spec_ws</t>
+  </si>
+  <si>
+    <t>spec_hum</t>
+  </si>
+  <si>
+    <t>spec_tdp</t>
+  </si>
+  <si>
+    <t>spec_wd</t>
   </si>
 </sst>
 </file>
@@ -1675,7 +1696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+    <sheetView topLeftCell="AL1" workbookViewId="0">
       <selection activeCell="AT15" sqref="AT15"/>
     </sheetView>
   </sheetViews>
@@ -1916,52 +1937,52 @@
         <v>218</v>
       </c>
       <c r="AN2" t="s">
+        <v>403</v>
+      </c>
+      <c r="AO2" t="s">
         <v>404</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>405</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>406</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>407</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>408</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>409</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AU2" t="s">
         <v>410</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AV2" t="s">
         <v>411</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AW2" t="s">
         <v>412</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AX2" t="s">
+        <v>430</v>
+      </c>
+      <c r="AY2" t="s">
         <v>413</v>
       </c>
-      <c r="AX2" t="s">
-        <v>431</v>
-      </c>
-      <c r="AY2" t="s">
+      <c r="AZ2" t="s">
         <v>414</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BA2" t="s">
         <v>415</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BB2" t="s">
         <v>416</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BC2" t="s">
         <v>417</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.25">
@@ -2032,43 +2053,43 @@
         <v>318</v>
       </c>
       <c r="AL3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AN3" t="s">
+        <v>418</v>
+      </c>
+      <c r="AO3" t="s">
         <v>419</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AP3" t="s">
         <v>420</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AQ3" t="s">
         <v>421</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="AR3" t="s">
         <v>422</v>
       </c>
-      <c r="AR3" t="s">
+      <c r="AU3" t="s">
         <v>423</v>
       </c>
-      <c r="AU3" t="s">
+      <c r="AV3" t="s">
         <v>424</v>
       </c>
-      <c r="AV3" t="s">
+      <c r="AW3" t="s">
         <v>425</v>
       </c>
-      <c r="AW3" t="s">
+      <c r="AX3" t="s">
         <v>426</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="BA3" t="s">
         <v>427</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BB3" t="s">
         <v>428</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BC3" t="s">
         <v>429</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.25">
@@ -2904,10 +2925,10 @@
     </row>
     <row r="3" spans="1:90" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
+        <v>400</v>
+      </c>
+      <c r="F3" t="s">
         <v>401</v>
-      </c>
-      <c r="F3" t="s">
-        <v>402</v>
       </c>
       <c r="G3" t="s">
         <v>131</v>
@@ -2916,10 +2937,10 @@
         <v>132</v>
       </c>
       <c r="I3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J3" t="s">
         <v>363</v>
-      </c>
-      <c r="J3" t="s">
-        <v>364</v>
       </c>
       <c r="K3" t="s">
         <v>135</v>
@@ -2928,10 +2949,10 @@
         <v>136</v>
       </c>
       <c r="M3" t="s">
+        <v>364</v>
+      </c>
+      <c r="N3" t="s">
         <v>365</v>
-      </c>
-      <c r="N3" t="s">
-        <v>366</v>
       </c>
       <c r="O3" t="s">
         <v>139</v>
@@ -2940,10 +2961,10 @@
         <v>140</v>
       </c>
       <c r="Q3" t="s">
+        <v>366</v>
+      </c>
+      <c r="R3" t="s">
         <v>367</v>
-      </c>
-      <c r="R3" t="s">
-        <v>368</v>
       </c>
       <c r="S3" t="s">
         <v>143</v>
@@ -2952,10 +2973,10 @@
         <v>144</v>
       </c>
       <c r="U3" t="s">
+        <v>368</v>
+      </c>
+      <c r="V3" t="s">
         <v>369</v>
-      </c>
-      <c r="V3" t="s">
-        <v>370</v>
       </c>
       <c r="W3" t="s">
         <v>147</v>
@@ -2976,10 +2997,10 @@
         <v>152</v>
       </c>
       <c r="AC3" t="s">
+        <v>370</v>
+      </c>
+      <c r="AD3" t="s">
         <v>371</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>372</v>
       </c>
       <c r="AE3" t="s">
         <v>155</v>
@@ -2988,10 +3009,10 @@
         <v>156</v>
       </c>
       <c r="AG3" t="s">
+        <v>372</v>
+      </c>
+      <c r="AH3" t="s">
         <v>373</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>374</v>
       </c>
       <c r="AI3" t="s">
         <v>159</v>
@@ -3000,10 +3021,10 @@
         <v>160</v>
       </c>
       <c r="AK3" t="s">
+        <v>374</v>
+      </c>
+      <c r="AL3" t="s">
         <v>375</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>376</v>
       </c>
       <c r="AM3" t="s">
         <v>163</v>
@@ -3012,10 +3033,10 @@
         <v>164</v>
       </c>
       <c r="AO3" t="s">
+        <v>376</v>
+      </c>
+      <c r="AP3" t="s">
         <v>377</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>378</v>
       </c>
       <c r="AQ3" t="s">
         <v>167</v>
@@ -3024,10 +3045,10 @@
         <v>168</v>
       </c>
       <c r="AS3" t="s">
+        <v>378</v>
+      </c>
+      <c r="AT3" t="s">
         <v>379</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>380</v>
       </c>
       <c r="AU3" t="s">
         <v>171</v>
@@ -3036,10 +3057,10 @@
         <v>172</v>
       </c>
       <c r="AW3" t="s">
+        <v>380</v>
+      </c>
+      <c r="AX3" t="s">
         <v>381</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>382</v>
       </c>
       <c r="AY3" t="s">
         <v>213</v>
@@ -3048,10 +3069,10 @@
         <v>214</v>
       </c>
       <c r="BA3" t="s">
+        <v>382</v>
+      </c>
+      <c r="BB3" t="s">
         <v>383</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>384</v>
       </c>
       <c r="BC3" t="s">
         <v>177</v>
@@ -3060,10 +3081,10 @@
         <v>178</v>
       </c>
       <c r="BE3" t="s">
+        <v>384</v>
+      </c>
+      <c r="BF3" t="s">
         <v>385</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>386</v>
       </c>
       <c r="BG3" t="s">
         <v>181</v>
@@ -3072,10 +3093,10 @@
         <v>182</v>
       </c>
       <c r="BI3" t="s">
+        <v>386</v>
+      </c>
+      <c r="BJ3" t="s">
         <v>387</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>388</v>
       </c>
       <c r="BK3" t="s">
         <v>185</v>
@@ -3084,10 +3105,10 @@
         <v>186</v>
       </c>
       <c r="BM3" t="s">
+        <v>388</v>
+      </c>
+      <c r="BN3" t="s">
         <v>389</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>390</v>
       </c>
       <c r="BO3" t="s">
         <v>189</v>
@@ -3096,10 +3117,10 @@
         <v>190</v>
       </c>
       <c r="BQ3" t="s">
+        <v>390</v>
+      </c>
+      <c r="BR3" t="s">
         <v>391</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>392</v>
       </c>
       <c r="BS3" t="s">
         <v>193</v>
@@ -3108,10 +3129,10 @@
         <v>194</v>
       </c>
       <c r="BU3" t="s">
+        <v>392</v>
+      </c>
+      <c r="BV3" t="s">
         <v>393</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>394</v>
       </c>
       <c r="BW3" t="s">
         <v>197</v>
@@ -3132,10 +3153,10 @@
         <v>202</v>
       </c>
       <c r="CC3" t="s">
+        <v>394</v>
+      </c>
+      <c r="CD3" t="s">
         <v>395</v>
-      </c>
-      <c r="CD3" t="s">
-        <v>396</v>
       </c>
       <c r="CE3" t="s">
         <v>205</v>
@@ -3144,10 +3165,10 @@
         <v>206</v>
       </c>
       <c r="CG3" t="s">
+        <v>396</v>
+      </c>
+      <c r="CH3" t="s">
         <v>397</v>
-      </c>
-      <c r="CH3" t="s">
-        <v>398</v>
       </c>
       <c r="CI3" t="s">
         <v>209</v>
@@ -3156,10 +3177,10 @@
         <v>210</v>
       </c>
       <c r="CK3" t="s">
+        <v>398</v>
+      </c>
+      <c r="CL3" t="s">
         <v>399</v>
-      </c>
-      <c r="CL3" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:90" x14ac:dyDescent="0.25">
@@ -3797,8 +3818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3952,34 +3973,58 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>431</v>
+      </c>
       <c r="P3" t="s">
-        <v>329</v>
+        <v>433</v>
       </c>
       <c r="Q3" t="s">
-        <v>229</v>
+        <v>434</v>
+      </c>
+      <c r="R3" t="s">
+        <v>435</v>
+      </c>
+      <c r="S3" t="s">
+        <v>436</v>
+      </c>
+      <c r="T3" t="s">
+        <v>437</v>
+      </c>
+      <c r="U3" t="s">
+        <v>438</v>
+      </c>
+      <c r="X3" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>329</v>
+      </c>
       <c r="P4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Q4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="R4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="S4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="T4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="V4" t="s">
-        <v>330</v>
+        <v>329</v>
+      </c>
+      <c r="X4" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -4385,25 +4430,25 @@
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G3" t="s">
         <v>239</v>
       </c>
       <c r="H3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I3" t="s">
         <v>241</v>
       </c>
       <c r="J3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K3" t="s">
         <v>243</v>
       </c>
       <c r="L3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M3" t="s">
         <v>245</v>
@@ -4412,106 +4457,106 @@
         <v>246</v>
       </c>
       <c r="O3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="P3" t="s">
         <v>248</v>
       </c>
       <c r="Q3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="R3" t="s">
         <v>250</v>
       </c>
       <c r="S3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="T3" t="s">
         <v>252</v>
       </c>
       <c r="U3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="V3" t="s">
         <v>254</v>
       </c>
       <c r="W3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="X3" t="s">
         <v>256</v>
       </c>
       <c r="Y3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Z3" t="s">
         <v>258</v>
       </c>
       <c r="AA3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AB3" t="s">
         <v>260</v>
       </c>
       <c r="AC3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AD3" t="s">
         <v>262</v>
       </c>
       <c r="AE3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF3" t="s">
         <v>264</v>
       </c>
       <c r="AG3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AH3" t="s">
         <v>266</v>
       </c>
       <c r="AI3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AJ3" t="s">
         <v>268</v>
       </c>
       <c r="AK3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AL3" t="s">
         <v>270</v>
       </c>
       <c r="AM3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AN3" t="s">
         <v>272</v>
       </c>
       <c r="AO3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AP3" t="s">
         <v>274</v>
       </c>
       <c r="AQ3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AR3" t="s">
         <v>276</v>
       </c>
       <c r="AS3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AT3" t="s">
         <v>278</v>
       </c>
       <c r="AU3" t="s">
+        <v>350</v>
+      </c>
+      <c r="AV3" t="s">
         <v>351</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>352</v>
       </c>
       <c r="AW3" t="s">
         <v>281</v>
@@ -4519,142 +4564,142 @@
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="O4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Q4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="R4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="S4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="T4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="U4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="V4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="W4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="X4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Y4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Z4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AA4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AB4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AC4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AD4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AE4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AF4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AG4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AH4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AI4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AJ4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AK4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AL4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AM4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AN4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AO4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AP4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AQ4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AR4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AS4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AT4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AU4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AV4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AW4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AX4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.25">
@@ -5104,7 +5149,7 @@
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G3" t="s">
         <v>239</v>
@@ -5113,237 +5158,237 @@
         <v>243</v>
       </c>
       <c r="I3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J3" t="s">
         <v>278</v>
       </c>
       <c r="K3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L3" t="s">
         <v>245</v>
       </c>
       <c r="M3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N3" t="s">
         <v>246</v>
       </c>
       <c r="O3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="P3" t="s">
         <v>248</v>
       </c>
       <c r="Q3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="R3" t="s">
         <v>250</v>
       </c>
       <c r="S3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="T3" t="s">
         <v>252</v>
       </c>
       <c r="U3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="V3" t="s">
         <v>254</v>
       </c>
       <c r="W3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="X3" t="s">
         <v>256</v>
       </c>
       <c r="Y3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z3" t="s">
         <v>281</v>
       </c>
       <c r="AA3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AB3" t="s">
         <v>258</v>
       </c>
       <c r="AC3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AD3" t="s">
         <v>260</v>
       </c>
       <c r="AE3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF3" t="s">
         <v>262</v>
       </c>
       <c r="AG3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AH3" t="s">
         <v>264</v>
       </c>
       <c r="AI3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AJ3" t="s">
         <v>266</v>
       </c>
       <c r="AK3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AL3" t="s">
         <v>268</v>
       </c>
       <c r="AM3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AN3" t="s">
         <v>270</v>
       </c>
       <c r="AO3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AP3" t="s">
         <v>272</v>
       </c>
       <c r="AQ3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AR3" t="s">
         <v>274</v>
       </c>
       <c r="AS3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="P4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Q4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="R4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="S4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="T4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="U4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="V4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="W4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="X4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Y4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Z4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AA4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AB4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AC4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AD4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AE4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AF4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AG4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AH4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AI4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AJ4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AK4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AL4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AM4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AN4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AO4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AP4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AQ4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AR4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AS4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.25">
@@ -5585,22 +5630,22 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -5744,63 +5789,63 @@
         <v>287</v>
       </c>
       <c r="F3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G3" t="s">
         <v>289</v>
       </c>
       <c r="H3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I3" t="s">
         <v>291</v>
       </c>
       <c r="J3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K3" t="s">
         <v>293</v>
       </c>
       <c r="L3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M3" t="s">
         <v>295</v>
       </c>
       <c r="N3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="M4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -5817,34 +5862,34 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="M5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>

--- a/header_files/spec_header.xlsx
+++ b/header_files/spec_header.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shann\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B3DC05-AD32-48E4-82C3-0ECBDB0EB98B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D232EA-16C4-4F81-9BB2-C143B5A33002}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3360" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CARB" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="444">
   <si>
     <t>V1</t>
   </si>
@@ -427,264 +427,6 @@
     <t>V91</t>
   </si>
   <si>
-    <t>media_N_speciation_mass_ug_m3</t>
-  </si>
-  <si>
-    <t>media_T_speciation_mass_ug_m3</t>
-  </si>
-  <si>
-    <t>media_N_fluoride</t>
-  </si>
-  <si>
-    <t>media_T_fluoride</t>
-  </si>
-  <si>
-    <t>media_N_f_mdl</t>
-  </si>
-  <si>
-    <t>media_T_f_mdl</t>
-  </si>
-  <si>
-    <t>media_N_acetate</t>
-  </si>
-  <si>
-    <t>media_T_acetate</t>
-  </si>
-  <si>
-    <t>media_N_acet_mdl</t>
-  </si>
-  <si>
-    <t>media_T_acet_mdl</t>
-  </si>
-  <si>
-    <t>media_N_formate</t>
-  </si>
-  <si>
-    <t>media_T_formate</t>
-  </si>
-  <si>
-    <t>media_N_form_mdl</t>
-  </si>
-  <si>
-    <t>media_T_form_mdl</t>
-  </si>
-  <si>
-    <t>media_N_propionate</t>
-  </si>
-  <si>
-    <t>media_T_propionate</t>
-  </si>
-  <si>
-    <t>media_N_prop_mdl</t>
-  </si>
-  <si>
-    <t>media_T_prop_mdl</t>
-  </si>
-  <si>
-    <t>media_N_msa</t>
-  </si>
-  <si>
-    <t>media_T_msa</t>
-  </si>
-  <si>
-    <t>media_N_msa_mdl</t>
-  </si>
-  <si>
-    <t>media_T_msa_mdl</t>
-  </si>
-  <si>
-    <t>media_N_chloride</t>
-  </si>
-  <si>
-    <t>media_T_chloride</t>
-  </si>
-  <si>
-    <t>media_N_cl_mdl</t>
-  </si>
-  <si>
-    <t>media_T_cl_mdl</t>
-  </si>
-  <si>
-    <t>media_N_nitrite</t>
-  </si>
-  <si>
-    <t>media_T_nitrite</t>
-  </si>
-  <si>
-    <t>media_N_no2_mdl</t>
-  </si>
-  <si>
-    <t>media_T_no2_mdl</t>
-  </si>
-  <si>
-    <t>media_N_sulphate</t>
-  </si>
-  <si>
-    <t>media_T_sulphate</t>
-  </si>
-  <si>
-    <t>media_N_so4_mdl</t>
-  </si>
-  <si>
-    <t>media_T_so4_mdl</t>
-  </si>
-  <si>
-    <t>media_N_oxalate</t>
-  </si>
-  <si>
-    <t>media_T_oxalate</t>
-  </si>
-  <si>
-    <t>media_N_oxal_mdl</t>
-  </si>
-  <si>
-    <t>media_T_oxal_mdl</t>
-  </si>
-  <si>
-    <t>media_N_bromide</t>
-  </si>
-  <si>
-    <t>media_T_bromide</t>
-  </si>
-  <si>
-    <t>media_N_br_mdl</t>
-  </si>
-  <si>
-    <t>media_T_br_mdl</t>
-  </si>
-  <si>
-    <t>media_N_nitrate</t>
-  </si>
-  <si>
-    <t>media_T_nitrate</t>
-  </si>
-  <si>
-    <t>media_N_no3_mdl</t>
-  </si>
-  <si>
-    <t>media_T_no3_mdl</t>
-  </si>
-  <si>
-    <t>media_N_po4_mdl</t>
-  </si>
-  <si>
-    <t>media_T_po4_mdl</t>
-  </si>
-  <si>
-    <t>media_N_lithium</t>
-  </si>
-  <si>
-    <t>media_T_lithium</t>
-  </si>
-  <si>
-    <t>media_N_li_mdl</t>
-  </si>
-  <si>
-    <t>media_T_li_mdl</t>
-  </si>
-  <si>
-    <t>media_N_sodium</t>
-  </si>
-  <si>
-    <t>media_T_sodium</t>
-  </si>
-  <si>
-    <t>media_N_na_mdl</t>
-  </si>
-  <si>
-    <t>media_T_na_mdl</t>
-  </si>
-  <si>
-    <t>media_N_ammonium</t>
-  </si>
-  <si>
-    <t>media_T_ammonium</t>
-  </si>
-  <si>
-    <t>media_N_nh4_mdl</t>
-  </si>
-  <si>
-    <t>media_T_nh4_mdl</t>
-  </si>
-  <si>
-    <t>media_N_potassium</t>
-  </si>
-  <si>
-    <t>media_T_potassium</t>
-  </si>
-  <si>
-    <t>media_N_k_mdl</t>
-  </si>
-  <si>
-    <t>media_T_k_mdl</t>
-  </si>
-  <si>
-    <t>media_N_magnesium</t>
-  </si>
-  <si>
-    <t>media_T_magnesium</t>
-  </si>
-  <si>
-    <t>media_N_mg_mdl</t>
-  </si>
-  <si>
-    <t>media_T_mg_mdl</t>
-  </si>
-  <si>
-    <t>media_N_manganese</t>
-  </si>
-  <si>
-    <t>media_T_manganese</t>
-  </si>
-  <si>
-    <t>media_N_mn_mdl</t>
-  </si>
-  <si>
-    <t>media_T_mn_mdl</t>
-  </si>
-  <si>
-    <t>media_N_calcium</t>
-  </si>
-  <si>
-    <t>media_T_calcium</t>
-  </si>
-  <si>
-    <t>media_N_ca_mdl</t>
-  </si>
-  <si>
-    <t>media_T_ca_mdl</t>
-  </si>
-  <si>
-    <t>media_N_strontium</t>
-  </si>
-  <si>
-    <t>media_T_strontium</t>
-  </si>
-  <si>
-    <t>media_N_sr_mdl</t>
-  </si>
-  <si>
-    <t>media_T_sr_mdl</t>
-  </si>
-  <si>
-    <t>media_N_barium</t>
-  </si>
-  <si>
-    <t>media_T_barium</t>
-  </si>
-  <si>
-    <t>media_N_ba_mdl</t>
-  </si>
-  <si>
-    <t>media_T_ba_mdl</t>
-  </si>
-  <si>
-    <t>media_N_phosphate</t>
-  </si>
-  <si>
-    <t>media_T_phosphate</t>
-  </si>
-  <si>
     <t>media</t>
   </si>
   <si>
@@ -931,72 +673,6 @@
     <t>galact_mdl</t>
   </si>
   <si>
-    <t>cart_a_oc1_a</t>
-  </si>
-  <si>
-    <t>cart_b_oc1_b</t>
-  </si>
-  <si>
-    <t>cart_a_oc2_a</t>
-  </si>
-  <si>
-    <t>cart_b_oc2_b</t>
-  </si>
-  <si>
-    <t>cart_a_oc3_a</t>
-  </si>
-  <si>
-    <t>cart_b_oc3_b</t>
-  </si>
-  <si>
-    <t>cart_a_oc4_a</t>
-  </si>
-  <si>
-    <t>cart_b_oc4_b</t>
-  </si>
-  <si>
-    <t>cart_a_poc_a</t>
-  </si>
-  <si>
-    <t>cart_a_oc_a</t>
-  </si>
-  <si>
-    <t>cart_b_oc_b</t>
-  </si>
-  <si>
-    <t>cart_a_ec_a</t>
-  </si>
-  <si>
-    <t>cart_b_ec1_b</t>
-  </si>
-  <si>
-    <t>cart_a_ec2_a</t>
-  </si>
-  <si>
-    <t>cart_b_ec2_b</t>
-  </si>
-  <si>
-    <t>cart_a_ec3_a</t>
-  </si>
-  <si>
-    <t>cart_b_ec3_b</t>
-  </si>
-  <si>
-    <t>cart_a_tc_a</t>
-  </si>
-  <si>
-    <t>cart_b_tc_b</t>
-  </si>
-  <si>
-    <t>cart_a_oc_a_mdl</t>
-  </si>
-  <si>
-    <t>cart_b_oc_b_mdl</t>
-  </si>
-  <si>
-    <t>cart_a_ec_a_mdl</t>
-  </si>
-  <si>
     <t>OCEC &amp; OC Artifacts</t>
   </si>
   <si>
@@ -1018,12 +694,6 @@
     <t>character</t>
   </si>
   <si>
-    <t>cart_c_ammonia</t>
-  </si>
-  <si>
-    <t>cart_c_ammonia_mdl</t>
-  </si>
-  <si>
     <t>Ammonia_IC</t>
   </si>
   <si>
@@ -1126,129 +796,6 @@
     <t>numieric</t>
   </si>
   <si>
-    <t>media_N_fluoride_mdl</t>
-  </si>
-  <si>
-    <t>media_T_fluoride_mdl</t>
-  </si>
-  <si>
-    <t>media_N_acetate_mdl</t>
-  </si>
-  <si>
-    <t>media_T_acetate_mdl</t>
-  </si>
-  <si>
-    <t>media_N_formate_mdl</t>
-  </si>
-  <si>
-    <t>media_T_formate_mdl</t>
-  </si>
-  <si>
-    <t>media_N_propionate_mdl</t>
-  </si>
-  <si>
-    <t>media_T_propionate_mdl</t>
-  </si>
-  <si>
-    <t>media_N_chloride_mdl</t>
-  </si>
-  <si>
-    <t>media_T_chloride_mdl</t>
-  </si>
-  <si>
-    <t>media_N_nitrite_mdl</t>
-  </si>
-  <si>
-    <t>media_T_nitrite_mdl</t>
-  </si>
-  <si>
-    <t>media_N_sulphate_mdl</t>
-  </si>
-  <si>
-    <t>media_T_sulphate_mdl</t>
-  </si>
-  <si>
-    <t>media_N_oxalate_mdl</t>
-  </si>
-  <si>
-    <t>media_T_oxalate_mdl</t>
-  </si>
-  <si>
-    <t>media_N_bromide_mdl</t>
-  </si>
-  <si>
-    <t>media_T_bromide_mdl</t>
-  </si>
-  <si>
-    <t>media_N_nitrate_mdl</t>
-  </si>
-  <si>
-    <t>media_T_nitrate_mdl</t>
-  </si>
-  <si>
-    <t>media_N_phosphate_mdl</t>
-  </si>
-  <si>
-    <t>media_T_phosphate_mdl</t>
-  </si>
-  <si>
-    <t>media_N_lithium_mdl</t>
-  </si>
-  <si>
-    <t>media_T_lithium_mdl</t>
-  </si>
-  <si>
-    <t>media_N_sodium_mdl</t>
-  </si>
-  <si>
-    <t>media_T_sodium_mdl</t>
-  </si>
-  <si>
-    <t>media_N_ammonium_mdl</t>
-  </si>
-  <si>
-    <t>media_T_ammonium_mdl</t>
-  </si>
-  <si>
-    <t>media_N_potassium_mdl</t>
-  </si>
-  <si>
-    <t>media_T_potassium_mdl</t>
-  </si>
-  <si>
-    <t>media_N_magnesium_mdl</t>
-  </si>
-  <si>
-    <t>media_T_magnesium_mdl</t>
-  </si>
-  <si>
-    <t>media_N_calcium_mdl</t>
-  </si>
-  <si>
-    <t>media_T_calcium_mdl</t>
-  </si>
-  <si>
-    <t>media_N_strontium_mdl</t>
-  </si>
-  <si>
-    <t>media_T_strontium_mdl</t>
-  </si>
-  <si>
-    <t>media_N_barium_mdl</t>
-  </si>
-  <si>
-    <t>media_T_barium_mdl</t>
-  </si>
-  <si>
-    <t>media_N_speciation_mass_ug_m4</t>
-  </si>
-  <si>
-    <t>media_T_speciation_mass_ug_m4</t>
-  </si>
-  <si>
-    <t>cart_b_ec_b_mdl</t>
-  </si>
-  <si>
     <t>oc1</t>
   </si>
   <si>
@@ -1294,67 +841,535 @@
     <t>ec_dl</t>
   </si>
   <si>
-    <t>cart_fb_oc1_fb</t>
-  </si>
-  <si>
-    <t>cart_fb_oc2_fb</t>
-  </si>
-  <si>
-    <t>cart_fb_oc3_fb</t>
-  </si>
-  <si>
-    <t>cart_fb_oc4_fb</t>
-  </si>
-  <si>
-    <t>cart_fb_poc_fb</t>
-  </si>
-  <si>
-    <t>cart_fb_oc_fb</t>
-  </si>
-  <si>
-    <t>cart_fb_ec_fb</t>
-  </si>
-  <si>
-    <t>cart_fb_ec2_fb</t>
-  </si>
-  <si>
-    <t>cart_fb_ec3_fb</t>
-  </si>
-  <si>
-    <t>cart_fb_tc_fb</t>
-  </si>
-  <si>
-    <t>cart_fb_oc_fb_mdl</t>
-  </si>
-  <si>
-    <t>cart_fb_ec_fb_mdl</t>
-  </si>
-  <si>
     <t>ec3</t>
   </si>
   <si>
-    <t>spec_pm2_5</t>
-  </si>
-  <si>
     <t>dich_pm2_5</t>
   </si>
   <si>
-    <t>spec_pres</t>
-  </si>
-  <si>
-    <t>spec_temp</t>
-  </si>
-  <si>
-    <t>spec_ws</t>
-  </si>
-  <si>
-    <t>spec_hum</t>
-  </si>
-  <si>
-    <t>spec_tdp</t>
-  </si>
-  <si>
-    <t>spec_wd</t>
+    <t>oc1_a</t>
+  </si>
+  <si>
+    <t>oc1_b</t>
+  </si>
+  <si>
+    <t>oc2_a</t>
+  </si>
+  <si>
+    <t>oc2_b</t>
+  </si>
+  <si>
+    <t>oc3_a</t>
+  </si>
+  <si>
+    <t>oc3_b</t>
+  </si>
+  <si>
+    <t>oc4_a</t>
+  </si>
+  <si>
+    <t>oc4_b</t>
+  </si>
+  <si>
+    <t>poc_a</t>
+  </si>
+  <si>
+    <t>oc_a</t>
+  </si>
+  <si>
+    <t>oc_b</t>
+  </si>
+  <si>
+    <t>ec_a</t>
+  </si>
+  <si>
+    <t>ec1_b</t>
+  </si>
+  <si>
+    <t>ec2_a</t>
+  </si>
+  <si>
+    <t>ec2_b</t>
+  </si>
+  <si>
+    <t>ec3_a</t>
+  </si>
+  <si>
+    <t>ec3_b</t>
+  </si>
+  <si>
+    <t>tc_a</t>
+  </si>
+  <si>
+    <t>tc_b</t>
+  </si>
+  <si>
+    <t>oc_a_mdl</t>
+  </si>
+  <si>
+    <t>oc_b_mdl</t>
+  </si>
+  <si>
+    <t>ec_a_mdl</t>
+  </si>
+  <si>
+    <t>ec_b_mdl</t>
+  </si>
+  <si>
+    <t>NF_speciation_mass_ug_m3</t>
+  </si>
+  <si>
+    <t>NF_fluoride</t>
+  </si>
+  <si>
+    <t>NF_f_mdl</t>
+  </si>
+  <si>
+    <t>NF_acetate</t>
+  </si>
+  <si>
+    <t>NF_acet_mdl</t>
+  </si>
+  <si>
+    <t>NF_formate</t>
+  </si>
+  <si>
+    <t>NF_form_mdl</t>
+  </si>
+  <si>
+    <t>NF_propionate</t>
+  </si>
+  <si>
+    <t>NF_prop_mdl</t>
+  </si>
+  <si>
+    <t>NF_msa</t>
+  </si>
+  <si>
+    <t>NF_msa_mdl</t>
+  </si>
+  <si>
+    <t>NF_chloride</t>
+  </si>
+  <si>
+    <t>NF_cl_mdl</t>
+  </si>
+  <si>
+    <t>NF_nitrite</t>
+  </si>
+  <si>
+    <t>NF_no2_mdl</t>
+  </si>
+  <si>
+    <t>NF_sulphate</t>
+  </si>
+  <si>
+    <t>NF_so4_mdl</t>
+  </si>
+  <si>
+    <t>NF_oxalate</t>
+  </si>
+  <si>
+    <t>NF_oxal_mdl</t>
+  </si>
+  <si>
+    <t>NF_bromide</t>
+  </si>
+  <si>
+    <t>NF_br_mdl</t>
+  </si>
+  <si>
+    <t>NF_nitrate</t>
+  </si>
+  <si>
+    <t>NF_no3_mdl</t>
+  </si>
+  <si>
+    <t>NF_po4_mdl</t>
+  </si>
+  <si>
+    <t>NF_lithium</t>
+  </si>
+  <si>
+    <t>NF_li_mdl</t>
+  </si>
+  <si>
+    <t>NF_sodium</t>
+  </si>
+  <si>
+    <t>NF_na_mdl</t>
+  </si>
+  <si>
+    <t>NF_ammonium</t>
+  </si>
+  <si>
+    <t>NF_nh4_mdl</t>
+  </si>
+  <si>
+    <t>NF_potassium</t>
+  </si>
+  <si>
+    <t>NF_k_mdl</t>
+  </si>
+  <si>
+    <t>NF_magnesium</t>
+  </si>
+  <si>
+    <t>NF_mg_mdl</t>
+  </si>
+  <si>
+    <t>NF_manganese</t>
+  </si>
+  <si>
+    <t>NF_mn_mdl</t>
+  </si>
+  <si>
+    <t>NF_calcium</t>
+  </si>
+  <si>
+    <t>NF_ca_mdl</t>
+  </si>
+  <si>
+    <t>NF_strontium</t>
+  </si>
+  <si>
+    <t>NF_sr_mdl</t>
+  </si>
+  <si>
+    <t>NF_barium</t>
+  </si>
+  <si>
+    <t>NF_ba_mdl</t>
+  </si>
+  <si>
+    <t>NF_phosphate</t>
+  </si>
+  <si>
+    <t>NF_fluoride_mdl</t>
+  </si>
+  <si>
+    <t>NF_acetate_mdl</t>
+  </si>
+  <si>
+    <t>NF_formate_mdl</t>
+  </si>
+  <si>
+    <t>NF_propionate_mdl</t>
+  </si>
+  <si>
+    <t>NF_chloride_mdl</t>
+  </si>
+  <si>
+    <t>NF_nitrite_mdl</t>
+  </si>
+  <si>
+    <t>NF_sulphate_mdl</t>
+  </si>
+  <si>
+    <t>NF_oxalate_mdl</t>
+  </si>
+  <si>
+    <t>NF_bromide_mdl</t>
+  </si>
+  <si>
+    <t>NF_nitrate_mdl</t>
+  </si>
+  <si>
+    <t>NF_phosphate_mdl</t>
+  </si>
+  <si>
+    <t>NF_lithium_mdl</t>
+  </si>
+  <si>
+    <t>NF_sodium_mdl</t>
+  </si>
+  <si>
+    <t>NF_ammonium_mdl</t>
+  </si>
+  <si>
+    <t>NF_potassium_mdl</t>
+  </si>
+  <si>
+    <t>NF_magnesium_mdl</t>
+  </si>
+  <si>
+    <t>NF_calcium_mdl</t>
+  </si>
+  <si>
+    <t>NF_strontium_mdl</t>
+  </si>
+  <si>
+    <t>NF_barium_mdl</t>
+  </si>
+  <si>
+    <t>TF_speciation_mass_ug_m3</t>
+  </si>
+  <si>
+    <t>TF_fluoride</t>
+  </si>
+  <si>
+    <t>TF_f_mdl</t>
+  </si>
+  <si>
+    <t>TF_acetate</t>
+  </si>
+  <si>
+    <t>TF_acet_mdl</t>
+  </si>
+  <si>
+    <t>TF_formate</t>
+  </si>
+  <si>
+    <t>TF_form_mdl</t>
+  </si>
+  <si>
+    <t>TF_propionate</t>
+  </si>
+  <si>
+    <t>TF_prop_mdl</t>
+  </si>
+  <si>
+    <t>TF_msa</t>
+  </si>
+  <si>
+    <t>TF_msa_mdl</t>
+  </si>
+  <si>
+    <t>TF_chloride</t>
+  </si>
+  <si>
+    <t>TF_cl_mdl</t>
+  </si>
+  <si>
+    <t>TF_nitrite</t>
+  </si>
+  <si>
+    <t>TF_no2_mdl</t>
+  </si>
+  <si>
+    <t>TF_sulphate</t>
+  </si>
+  <si>
+    <t>TF_so4_mdl</t>
+  </si>
+  <si>
+    <t>TF_oxalate</t>
+  </si>
+  <si>
+    <t>TF_oxal_mdl</t>
+  </si>
+  <si>
+    <t>TF_bromide</t>
+  </si>
+  <si>
+    <t>TF_br_mdl</t>
+  </si>
+  <si>
+    <t>TF_nitrate</t>
+  </si>
+  <si>
+    <t>TF_no3_mdl</t>
+  </si>
+  <si>
+    <t>TF_po4_mdl</t>
+  </si>
+  <si>
+    <t>TF_lithium</t>
+  </si>
+  <si>
+    <t>TF_li_mdl</t>
+  </si>
+  <si>
+    <t>TF_sodium</t>
+  </si>
+  <si>
+    <t>TF_na_mdl</t>
+  </si>
+  <si>
+    <t>TF_ammonium</t>
+  </si>
+  <si>
+    <t>TF_nh4_mdl</t>
+  </si>
+  <si>
+    <t>TF_potassium</t>
+  </si>
+  <si>
+    <t>TF_k_mdl</t>
+  </si>
+  <si>
+    <t>TF_magnesium</t>
+  </si>
+  <si>
+    <t>TF_mg_mdl</t>
+  </si>
+  <si>
+    <t>TF_manganese</t>
+  </si>
+  <si>
+    <t>TF_mn_mdl</t>
+  </si>
+  <si>
+    <t>TF_calcium</t>
+  </si>
+  <si>
+    <t>TF_ca_mdl</t>
+  </si>
+  <si>
+    <t>TF_strontium</t>
+  </si>
+  <si>
+    <t>TF_sr_mdl</t>
+  </si>
+  <si>
+    <t>TF_barium</t>
+  </si>
+  <si>
+    <t>TF_ba_mdl</t>
+  </si>
+  <si>
+    <t>TF_phosphate</t>
+  </si>
+  <si>
+    <t>TF_fluoride_mdl</t>
+  </si>
+  <si>
+    <t>TF_acetate_mdl</t>
+  </si>
+  <si>
+    <t>TF_formate_mdl</t>
+  </si>
+  <si>
+    <t>TF_propionate_mdl</t>
+  </si>
+  <si>
+    <t>TF_chloride_mdl</t>
+  </si>
+  <si>
+    <t>TF_nitrite_mdl</t>
+  </si>
+  <si>
+    <t>TF_sulphate_mdl</t>
+  </si>
+  <si>
+    <t>TF_oxalate_mdl</t>
+  </si>
+  <si>
+    <t>TF_bromide_mdl</t>
+  </si>
+  <si>
+    <t>TF_nitrate_mdl</t>
+  </si>
+  <si>
+    <t>TF_phosphate_mdl</t>
+  </si>
+  <si>
+    <t>TF_lithium_mdl</t>
+  </si>
+  <si>
+    <t>TF_sodium_mdl</t>
+  </si>
+  <si>
+    <t>TF_ammonium_mdl</t>
+  </si>
+  <si>
+    <t>TF_potassium_mdl</t>
+  </si>
+  <si>
+    <t>TF_magnesium_mdl</t>
+  </si>
+  <si>
+    <t>TF_calcium_mdl</t>
+  </si>
+  <si>
+    <t>TF_strontium_mdl</t>
+  </si>
+  <si>
+    <t>TF_barium_mdl</t>
+  </si>
+  <si>
+    <t>NF_spec_pm</t>
+  </si>
+  <si>
+    <t>TF_spec_pm</t>
+  </si>
+  <si>
+    <t>pm_a</t>
+  </si>
+  <si>
+    <t>pm_b</t>
+  </si>
+  <si>
+    <t>poc_r_b</t>
+  </si>
+  <si>
+    <t>poc_t_a</t>
+  </si>
+  <si>
+    <t>poc_t_b</t>
+  </si>
+  <si>
+    <t>oc_r_a</t>
+  </si>
+  <si>
+    <t>oc_r_b</t>
+  </si>
+  <si>
+    <t>ec_t_a</t>
+  </si>
+  <si>
+    <t>ec_t_b</t>
+  </si>
+  <si>
+    <t>ec_r_a</t>
+  </si>
+  <si>
+    <t>ec_r_b</t>
+  </si>
+  <si>
+    <t>pm_fb</t>
+  </si>
+  <si>
+    <t>oc1_fb</t>
+  </si>
+  <si>
+    <t>oc2_fb</t>
+  </si>
+  <si>
+    <t>oc3_fb</t>
+  </si>
+  <si>
+    <t>oc4_fb</t>
+  </si>
+  <si>
+    <t>poc_fb</t>
+  </si>
+  <si>
+    <t>oc_fb</t>
+  </si>
+  <si>
+    <t>ec_fb</t>
+  </si>
+  <si>
+    <t>ec2_fb</t>
+  </si>
+  <si>
+    <t>ec3_fb</t>
+  </si>
+  <si>
+    <t>tc_fb</t>
+  </si>
+  <si>
+    <t>oc_fb_mdl</t>
+  </si>
+  <si>
+    <t>ec_fb_mdl</t>
+  </si>
+  <si>
+    <t>ammonia_mdl</t>
+  </si>
+  <si>
+    <t>pm2_5</t>
   </si>
 </sst>
 </file>
@@ -1696,8 +1711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC5"/>
   <sheetViews>
-    <sheetView topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="AT15" sqref="AT15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AO21" sqref="AO21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1817,6 +1832,57 @@
       <c r="AL1" t="s">
         <v>37</v>
       </c>
+      <c r="AM1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1934,317 +2000,353 @@
         <v>75</v>
       </c>
       <c r="AM2" t="s">
-        <v>218</v>
+        <v>132</v>
       </c>
       <c r="AN2" t="s">
-        <v>403</v>
+        <v>252</v>
       </c>
       <c r="AO2" t="s">
-        <v>404</v>
+        <v>253</v>
       </c>
       <c r="AP2" t="s">
-        <v>405</v>
+        <v>254</v>
       </c>
       <c r="AQ2" t="s">
-        <v>406</v>
+        <v>255</v>
       </c>
       <c r="AR2" t="s">
-        <v>407</v>
+        <v>256</v>
       </c>
       <c r="AS2" t="s">
-        <v>408</v>
+        <v>257</v>
       </c>
       <c r="AT2" t="s">
-        <v>409</v>
+        <v>258</v>
       </c>
       <c r="AU2" t="s">
-        <v>410</v>
+        <v>259</v>
       </c>
       <c r="AV2" t="s">
-        <v>411</v>
+        <v>260</v>
       </c>
       <c r="AW2" t="s">
-        <v>412</v>
+        <v>261</v>
       </c>
       <c r="AX2" t="s">
-        <v>430</v>
+        <v>267</v>
       </c>
       <c r="AY2" t="s">
-        <v>413</v>
+        <v>262</v>
       </c>
       <c r="AZ2" t="s">
-        <v>414</v>
+        <v>263</v>
       </c>
       <c r="BA2" t="s">
-        <v>415</v>
+        <v>264</v>
       </c>
       <c r="BB2" t="s">
-        <v>416</v>
+        <v>265</v>
       </c>
       <c r="BC2" t="s">
-        <v>417</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F3" t="s">
+        <v>419</v>
+      </c>
       <c r="G3" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="H3" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="I3" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="J3" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="K3" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="L3" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="M3" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="N3" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="O3" t="s">
-        <v>305</v>
+        <v>277</v>
+      </c>
+      <c r="P3" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>421</v>
+      </c>
+      <c r="R3" t="s">
+        <v>422</v>
+      </c>
+      <c r="S3" t="s">
+        <v>423</v>
+      </c>
+      <c r="T3" t="s">
+        <v>424</v>
       </c>
       <c r="U3" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="V3" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="W3" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="X3" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="Y3" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="Z3" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="AA3" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="AB3" t="s">
-        <v>313</v>
+        <v>285</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>425</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>426</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>427</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>428</v>
       </c>
       <c r="AG3" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="AH3" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="AI3" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="AJ3" t="s">
-        <v>317</v>
+        <v>289</v>
       </c>
       <c r="AK3" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="AL3" t="s">
-        <v>402</v>
+        <v>291</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>429</v>
       </c>
       <c r="AN3" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="AO3" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="AP3" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="AQ3" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="AR3" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="AU3" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="AV3" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="AW3" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="AX3" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="BA3" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="BB3" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="BC3" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="F4" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="G4" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="H4" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="I4" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="J4" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="K4" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="L4" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="M4" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="N4" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="O4" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="P4" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="Q4" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="R4" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="S4" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="T4" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="U4" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="V4" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="W4" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="X4" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="Y4" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="Z4" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="AA4" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="AB4" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="AC4" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="AD4" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="AE4" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="AF4" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="AG4" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="AH4" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="AI4" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="AJ4" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="AK4" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="AL4" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="AM4" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="AN4" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="AO4" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="AP4" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="AQ4" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="AR4" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="AS4" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="AT4" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="AU4" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="AV4" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="AW4" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="AX4" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="AY4" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="AZ4" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="BA4" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="BB4" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="BC4" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.25">
@@ -2261,109 +2363,110 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="F5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="G5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="H5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="I5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="J5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="K5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="L5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="M5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="N5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="O5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="P5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="Q5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="R5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="S5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="T5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="U5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="V5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="W5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="X5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="Y5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="Z5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AA5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AB5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AC5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AD5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AE5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AF5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AG5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AH5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AI5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AJ5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AK5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AL5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -2374,7 +2477,7 @@
   <dimension ref="A1:CL5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2665,782 +2768,782 @@
         <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>292</v>
       </c>
       <c r="F2" t="s">
-        <v>130</v>
+        <v>354</v>
       </c>
       <c r="G2" t="s">
-        <v>131</v>
+        <v>293</v>
       </c>
       <c r="H2" t="s">
-        <v>132</v>
+        <v>355</v>
       </c>
       <c r="I2" t="s">
-        <v>133</v>
+        <v>294</v>
       </c>
       <c r="J2" t="s">
-        <v>134</v>
+        <v>356</v>
       </c>
       <c r="K2" t="s">
-        <v>135</v>
+        <v>295</v>
       </c>
       <c r="L2" t="s">
-        <v>136</v>
+        <v>357</v>
       </c>
       <c r="M2" t="s">
-        <v>137</v>
+        <v>296</v>
       </c>
       <c r="N2" t="s">
-        <v>138</v>
+        <v>358</v>
       </c>
       <c r="O2" t="s">
-        <v>139</v>
+        <v>297</v>
       </c>
       <c r="P2" t="s">
-        <v>140</v>
+        <v>359</v>
       </c>
       <c r="Q2" t="s">
-        <v>141</v>
+        <v>298</v>
       </c>
       <c r="R2" t="s">
-        <v>142</v>
+        <v>360</v>
       </c>
       <c r="S2" t="s">
-        <v>143</v>
+        <v>299</v>
       </c>
       <c r="T2" t="s">
-        <v>144</v>
+        <v>361</v>
       </c>
       <c r="U2" t="s">
-        <v>145</v>
+        <v>300</v>
       </c>
       <c r="V2" t="s">
-        <v>146</v>
+        <v>362</v>
       </c>
       <c r="W2" t="s">
-        <v>147</v>
+        <v>301</v>
       </c>
       <c r="X2" t="s">
-        <v>148</v>
+        <v>363</v>
       </c>
       <c r="Y2" t="s">
-        <v>149</v>
+        <v>302</v>
       </c>
       <c r="Z2" t="s">
-        <v>150</v>
+        <v>364</v>
       </c>
       <c r="AA2" t="s">
-        <v>151</v>
+        <v>303</v>
       </c>
       <c r="AB2" t="s">
-        <v>152</v>
+        <v>365</v>
       </c>
       <c r="AC2" t="s">
-        <v>153</v>
+        <v>304</v>
       </c>
       <c r="AD2" t="s">
-        <v>154</v>
+        <v>366</v>
       </c>
       <c r="AE2" t="s">
-        <v>155</v>
+        <v>305</v>
       </c>
       <c r="AF2" t="s">
-        <v>156</v>
+        <v>367</v>
       </c>
       <c r="AG2" t="s">
-        <v>157</v>
+        <v>306</v>
       </c>
       <c r="AH2" t="s">
-        <v>158</v>
+        <v>368</v>
       </c>
       <c r="AI2" t="s">
-        <v>159</v>
+        <v>307</v>
       </c>
       <c r="AJ2" t="s">
-        <v>160</v>
+        <v>369</v>
       </c>
       <c r="AK2" t="s">
-        <v>161</v>
+        <v>308</v>
       </c>
       <c r="AL2" t="s">
-        <v>162</v>
+        <v>370</v>
       </c>
       <c r="AM2" t="s">
-        <v>163</v>
+        <v>309</v>
       </c>
       <c r="AN2" t="s">
-        <v>164</v>
+        <v>371</v>
       </c>
       <c r="AO2" t="s">
-        <v>165</v>
+        <v>310</v>
       </c>
       <c r="AP2" t="s">
-        <v>166</v>
+        <v>372</v>
       </c>
       <c r="AQ2" t="s">
-        <v>167</v>
+        <v>311</v>
       </c>
       <c r="AR2" t="s">
-        <v>168</v>
+        <v>373</v>
       </c>
       <c r="AS2" t="s">
-        <v>169</v>
+        <v>312</v>
       </c>
       <c r="AT2" t="s">
-        <v>170</v>
+        <v>374</v>
       </c>
       <c r="AU2" t="s">
-        <v>171</v>
+        <v>313</v>
       </c>
       <c r="AV2" t="s">
-        <v>172</v>
+        <v>375</v>
       </c>
       <c r="AW2" t="s">
-        <v>173</v>
+        <v>314</v>
       </c>
       <c r="AX2" t="s">
-        <v>174</v>
+        <v>376</v>
       </c>
       <c r="AY2" t="s">
-        <v>175</v>
+        <v>315</v>
       </c>
       <c r="AZ2" t="s">
-        <v>176</v>
+        <v>377</v>
       </c>
       <c r="BA2" t="s">
-        <v>177</v>
+        <v>316</v>
       </c>
       <c r="BB2" t="s">
-        <v>178</v>
+        <v>378</v>
       </c>
       <c r="BC2" t="s">
-        <v>179</v>
+        <v>317</v>
       </c>
       <c r="BD2" t="s">
-        <v>180</v>
+        <v>379</v>
       </c>
       <c r="BE2" t="s">
-        <v>181</v>
+        <v>318</v>
       </c>
       <c r="BF2" t="s">
-        <v>182</v>
+        <v>380</v>
       </c>
       <c r="BG2" t="s">
-        <v>183</v>
+        <v>319</v>
       </c>
       <c r="BH2" t="s">
-        <v>184</v>
+        <v>381</v>
       </c>
       <c r="BI2" t="s">
-        <v>185</v>
+        <v>320</v>
       </c>
       <c r="BJ2" t="s">
-        <v>186</v>
+        <v>382</v>
       </c>
       <c r="BK2" t="s">
-        <v>187</v>
+        <v>321</v>
       </c>
       <c r="BL2" t="s">
-        <v>188</v>
+        <v>383</v>
       </c>
       <c r="BM2" t="s">
-        <v>189</v>
+        <v>322</v>
       </c>
       <c r="BN2" t="s">
-        <v>190</v>
+        <v>384</v>
       </c>
       <c r="BO2" t="s">
-        <v>191</v>
+        <v>323</v>
       </c>
       <c r="BP2" t="s">
-        <v>192</v>
+        <v>385</v>
       </c>
       <c r="BQ2" t="s">
-        <v>193</v>
+        <v>324</v>
       </c>
       <c r="BR2" t="s">
-        <v>194</v>
+        <v>386</v>
       </c>
       <c r="BS2" t="s">
-        <v>195</v>
+        <v>325</v>
       </c>
       <c r="BT2" t="s">
-        <v>196</v>
+        <v>387</v>
       </c>
       <c r="BU2" t="s">
-        <v>197</v>
+        <v>326</v>
       </c>
       <c r="BV2" t="s">
-        <v>198</v>
+        <v>388</v>
       </c>
       <c r="BW2" t="s">
-        <v>199</v>
+        <v>327</v>
       </c>
       <c r="BX2" t="s">
-        <v>200</v>
+        <v>389</v>
       </c>
       <c r="BY2" t="s">
-        <v>201</v>
+        <v>328</v>
       </c>
       <c r="BZ2" t="s">
-        <v>202</v>
+        <v>390</v>
       </c>
       <c r="CA2" t="s">
-        <v>203</v>
+        <v>329</v>
       </c>
       <c r="CB2" t="s">
-        <v>204</v>
+        <v>391</v>
       </c>
       <c r="CC2" t="s">
-        <v>205</v>
+        <v>330</v>
       </c>
       <c r="CD2" t="s">
-        <v>206</v>
+        <v>392</v>
       </c>
       <c r="CE2" t="s">
-        <v>207</v>
+        <v>331</v>
       </c>
       <c r="CF2" t="s">
-        <v>208</v>
+        <v>393</v>
       </c>
       <c r="CG2" t="s">
-        <v>209</v>
+        <v>332</v>
       </c>
       <c r="CH2" t="s">
-        <v>210</v>
+        <v>394</v>
       </c>
       <c r="CI2" t="s">
-        <v>211</v>
+        <v>333</v>
       </c>
       <c r="CJ2" t="s">
-        <v>212</v>
+        <v>395</v>
       </c>
       <c r="CK2" t="s">
-        <v>213</v>
+        <v>334</v>
       </c>
       <c r="CL2" t="s">
-        <v>214</v>
+        <v>396</v>
       </c>
     </row>
     <row r="3" spans="1:90" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F3" t="s">
+        <v>417</v>
+      </c>
+      <c r="G3" t="s">
+        <v>293</v>
+      </c>
+      <c r="H3" t="s">
+        <v>355</v>
+      </c>
+      <c r="I3" t="s">
+        <v>335</v>
+      </c>
+      <c r="J3" t="s">
+        <v>397</v>
+      </c>
+      <c r="K3" t="s">
+        <v>295</v>
+      </c>
+      <c r="L3" t="s">
+        <v>357</v>
+      </c>
+      <c r="M3" t="s">
+        <v>336</v>
+      </c>
+      <c r="N3" t="s">
+        <v>398</v>
+      </c>
+      <c r="O3" t="s">
+        <v>297</v>
+      </c>
+      <c r="P3" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>337</v>
+      </c>
+      <c r="R3" t="s">
+        <v>399</v>
+      </c>
+      <c r="S3" t="s">
+        <v>299</v>
+      </c>
+      <c r="T3" t="s">
+        <v>361</v>
+      </c>
+      <c r="U3" t="s">
+        <v>338</v>
+      </c>
+      <c r="V3" t="s">
         <v>400</v>
       </c>
-      <c r="F3" t="s">
+      <c r="W3" t="s">
+        <v>301</v>
+      </c>
+      <c r="X3" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>364</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>365</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>339</v>
+      </c>
+      <c r="AD3" t="s">
         <v>401</v>
       </c>
-      <c r="G3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H3" t="s">
-        <v>132</v>
-      </c>
-      <c r="I3" t="s">
-        <v>362</v>
-      </c>
-      <c r="J3" t="s">
-        <v>363</v>
-      </c>
-      <c r="K3" t="s">
-        <v>135</v>
-      </c>
-      <c r="L3" t="s">
-        <v>136</v>
-      </c>
-      <c r="M3" t="s">
-        <v>364</v>
-      </c>
-      <c r="N3" t="s">
-        <v>365</v>
-      </c>
-      <c r="O3" t="s">
-        <v>139</v>
-      </c>
-      <c r="P3" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>366</v>
-      </c>
-      <c r="R3" t="s">
+      <c r="AE3" t="s">
+        <v>305</v>
+      </c>
+      <c r="AF3" t="s">
         <v>367</v>
       </c>
-      <c r="S3" t="s">
-        <v>143</v>
-      </c>
-      <c r="T3" t="s">
-        <v>144</v>
-      </c>
-      <c r="U3" t="s">
-        <v>368</v>
-      </c>
-      <c r="V3" t="s">
+      <c r="AG3" t="s">
+        <v>340</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>402</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>307</v>
+      </c>
+      <c r="AJ3" t="s">
         <v>369</v>
       </c>
-      <c r="W3" t="s">
-        <v>147</v>
-      </c>
-      <c r="X3" t="s">
-        <v>148</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>149</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>152</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>370</v>
-      </c>
-      <c r="AD3" t="s">
+      <c r="AK3" t="s">
+        <v>341</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>403</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>309</v>
+      </c>
+      <c r="AN3" t="s">
         <v>371</v>
       </c>
-      <c r="AE3" t="s">
-        <v>155</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>156</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>372</v>
-      </c>
-      <c r="AH3" t="s">
+      <c r="AO3" t="s">
+        <v>342</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>404</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>311</v>
+      </c>
+      <c r="AR3" t="s">
         <v>373</v>
       </c>
-      <c r="AI3" t="s">
-        <v>159</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>160</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>374</v>
-      </c>
-      <c r="AL3" t="s">
+      <c r="AS3" t="s">
+        <v>343</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>405</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>313</v>
+      </c>
+      <c r="AV3" t="s">
         <v>375</v>
       </c>
-      <c r="AM3" t="s">
-        <v>163</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>164</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>376</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>377</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>167</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>168</v>
-      </c>
-      <c r="AS3" t="s">
+      <c r="AW3" t="s">
+        <v>344</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>406</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>334</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>396</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>345</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>407</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>316</v>
+      </c>
+      <c r="BD3" t="s">
         <v>378</v>
       </c>
-      <c r="AT3" t="s">
-        <v>379</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>171</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>172</v>
-      </c>
-      <c r="AW3" t="s">
+      <c r="BE3" t="s">
+        <v>346</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>408</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>318</v>
+      </c>
+      <c r="BH3" t="s">
         <v>380</v>
       </c>
-      <c r="AX3" t="s">
-        <v>381</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>213</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>214</v>
-      </c>
-      <c r="BA3" t="s">
+      <c r="BI3" t="s">
+        <v>347</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>409</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>320</v>
+      </c>
+      <c r="BL3" t="s">
         <v>382</v>
       </c>
-      <c r="BB3" t="s">
-        <v>383</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>177</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>178</v>
-      </c>
-      <c r="BE3" t="s">
+      <c r="BM3" t="s">
+        <v>348</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>410</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>322</v>
+      </c>
+      <c r="BP3" t="s">
         <v>384</v>
       </c>
-      <c r="BF3" t="s">
-        <v>385</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>181</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>182</v>
-      </c>
-      <c r="BI3" t="s">
+      <c r="BQ3" t="s">
+        <v>349</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>411</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>324</v>
+      </c>
+      <c r="BT3" t="s">
         <v>386</v>
       </c>
-      <c r="BJ3" t="s">
-        <v>387</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>185</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>186</v>
-      </c>
-      <c r="BM3" t="s">
+      <c r="BU3" t="s">
+        <v>350</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>412</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>326</v>
+      </c>
+      <c r="BX3" t="s">
         <v>388</v>
       </c>
-      <c r="BN3" t="s">
+      <c r="BY3" t="s">
+        <v>327</v>
+      </c>
+      <c r="BZ3" t="s">
         <v>389</v>
       </c>
-      <c r="BO3" t="s">
-        <v>189</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>190</v>
-      </c>
-      <c r="BQ3" t="s">
+      <c r="CA3" t="s">
+        <v>328</v>
+      </c>
+      <c r="CB3" t="s">
         <v>390</v>
       </c>
-      <c r="BR3" t="s">
-        <v>391</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>193</v>
-      </c>
-      <c r="BT3" t="s">
-        <v>194</v>
-      </c>
-      <c r="BU3" t="s">
+      <c r="CC3" t="s">
+        <v>351</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>413</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>330</v>
+      </c>
+      <c r="CF3" t="s">
         <v>392</v>
       </c>
-      <c r="BV3" t="s">
-        <v>393</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>197</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>198</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>199</v>
-      </c>
-      <c r="BZ3" t="s">
-        <v>200</v>
-      </c>
-      <c r="CA3" t="s">
-        <v>201</v>
-      </c>
-      <c r="CB3" t="s">
-        <v>202</v>
-      </c>
-      <c r="CC3" t="s">
+      <c r="CG3" t="s">
+        <v>352</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>414</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>332</v>
+      </c>
+      <c r="CJ3" t="s">
         <v>394</v>
       </c>
-      <c r="CD3" t="s">
-        <v>395</v>
-      </c>
-      <c r="CE3" t="s">
-        <v>205</v>
-      </c>
-      <c r="CF3" t="s">
-        <v>206</v>
-      </c>
-      <c r="CG3" t="s">
-        <v>396</v>
-      </c>
-      <c r="CH3" t="s">
-        <v>397</v>
-      </c>
-      <c r="CI3" t="s">
-        <v>209</v>
-      </c>
-      <c r="CJ3" t="s">
-        <v>210</v>
-      </c>
       <c r="CK3" t="s">
-        <v>398</v>
+        <v>353</v>
       </c>
       <c r="CL3" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4" spans="1:90" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="F4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="G4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="H4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="I4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="J4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="K4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="L4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="M4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="N4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="O4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="P4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="Q4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="R4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="S4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="T4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="U4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="V4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="W4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="X4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="Y4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="Z4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="AA4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="AB4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="AC4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="AD4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="AE4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="AF4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="AG4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="AH4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="AI4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="AJ4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="AK4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="AL4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="AM4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="AN4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="AO4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="AP4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="AQ4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="AR4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="AS4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="AT4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="AU4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="AV4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="AW4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="AX4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="AY4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="AZ4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="BA4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="BB4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="BC4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="BD4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="BE4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="BF4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="BG4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="BH4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="BI4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="BJ4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="BK4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="BL4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="BM4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="BN4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="BO4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="BP4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="BQ4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="BR4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="BS4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="BT4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="BU4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="BV4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="BW4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="BX4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="BY4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="BZ4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="CA4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="CB4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="CC4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="CD4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="CE4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="CF4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="CG4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="CH4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="CI4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="CJ4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="CK4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="CL4" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:90" x14ac:dyDescent="0.25">
@@ -3457,262 +3560,262 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="F5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="G5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="H5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="I5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="J5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="K5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="L5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="M5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="N5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="O5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="P5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="Q5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="R5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="S5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="T5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="U5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="V5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="W5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="X5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="Y5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="Z5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AA5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AB5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AC5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AD5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AE5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AF5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AG5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AH5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AI5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AJ5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AK5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AL5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AM5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AN5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AO5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AP5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AQ5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AR5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AS5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AT5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AU5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AV5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AW5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AX5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AY5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AZ5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="BA5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="BB5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="BC5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="BD5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="BE5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="BF5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="BG5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="BH5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="BI5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="BJ5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="BK5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="BL5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="BM5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="BN5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="BO5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="BP5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="BQ5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="BR5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="BS5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="BT5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="BU5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="BV5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="BW5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="BX5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="BY5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="BZ5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="CA5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="CB5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="CC5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="CD5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="CE5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="CF5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="CG5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="CH5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="CI5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="CJ5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="CK5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="CL5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3727,7 +3830,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3766,26 +3869,26 @@
         <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>216</v>
+        <v>130</v>
       </c>
       <c r="F2" t="s">
-        <v>217</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>326</v>
+        <v>141</v>
       </c>
       <c r="F3" t="s">
-        <v>327</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>328</v>
+        <v>218</v>
       </c>
       <c r="F4" t="s">
-        <v>328</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3802,10 +3905,10 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="F5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3819,7 +3922,7 @@
   <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+      <selection activeCell="P3" sqref="P3:U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3912,119 +4015,101 @@
         <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>218</v>
+        <v>132</v>
       </c>
       <c r="F2" t="s">
-        <v>219</v>
+        <v>133</v>
       </c>
       <c r="G2" t="s">
-        <v>220</v>
+        <v>134</v>
       </c>
       <c r="H2" t="s">
-        <v>221</v>
+        <v>135</v>
       </c>
       <c r="I2" t="s">
-        <v>222</v>
+        <v>136</v>
       </c>
       <c r="J2" t="s">
-        <v>216</v>
+        <v>130</v>
       </c>
       <c r="K2" t="s">
-        <v>223</v>
+        <v>137</v>
       </c>
       <c r="L2" t="s">
-        <v>224</v>
+        <v>138</v>
       </c>
       <c r="M2" t="s">
-        <v>225</v>
+        <v>139</v>
       </c>
       <c r="N2" t="s">
-        <v>226</v>
+        <v>140</v>
       </c>
       <c r="O2" t="s">
-        <v>227</v>
+        <v>141</v>
       </c>
       <c r="P2" t="s">
-        <v>228</v>
+        <v>142</v>
       </c>
       <c r="Q2" t="s">
-        <v>229</v>
+        <v>143</v>
       </c>
       <c r="R2" t="s">
-        <v>230</v>
+        <v>144</v>
       </c>
       <c r="S2" t="s">
-        <v>231</v>
+        <v>145</v>
       </c>
       <c r="T2" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="U2" t="s">
-        <v>233</v>
+        <v>147</v>
       </c>
       <c r="V2" t="s">
-        <v>234</v>
+        <v>148</v>
       </c>
       <c r="W2" t="s">
-        <v>235</v>
+        <v>149</v>
       </c>
       <c r="X2" t="s">
-        <v>236</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>431</v>
-      </c>
-      <c r="P3" t="s">
-        <v>433</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>434</v>
-      </c>
-      <c r="R3" t="s">
-        <v>435</v>
-      </c>
-      <c r="S3" t="s">
-        <v>436</v>
-      </c>
-      <c r="T3" t="s">
-        <v>437</v>
-      </c>
-      <c r="U3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="X3" t="s">
-        <v>432</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>329</v>
+        <v>219</v>
       </c>
       <c r="P4" t="s">
-        <v>329</v>
+        <v>219</v>
       </c>
       <c r="Q4" t="s">
-        <v>329</v>
+        <v>219</v>
       </c>
       <c r="R4" t="s">
-        <v>329</v>
+        <v>219</v>
       </c>
       <c r="S4" t="s">
-        <v>329</v>
+        <v>219</v>
       </c>
       <c r="T4" t="s">
-        <v>329</v>
+        <v>219</v>
       </c>
       <c r="U4" t="s">
-        <v>329</v>
+        <v>219</v>
       </c>
       <c r="V4" t="s">
-        <v>329</v>
+        <v>219</v>
       </c>
       <c r="X4" t="s">
-        <v>329</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -4041,64 +4126,64 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="F5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="G5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="H5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="I5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="J5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="K5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="L5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="M5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="N5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="O5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="P5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="Q5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="R5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="S5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="T5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="U5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="V5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="W5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="X5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -4113,7 +4198,7 @@
   <dimension ref="A1:AY5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4287,419 +4372,419 @@
         <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>237</v>
+        <v>151</v>
       </c>
       <c r="F2" t="s">
-        <v>238</v>
+        <v>152</v>
       </c>
       <c r="G2" t="s">
-        <v>239</v>
+        <v>153</v>
       </c>
       <c r="H2" t="s">
-        <v>240</v>
+        <v>154</v>
       </c>
       <c r="I2" t="s">
-        <v>241</v>
+        <v>155</v>
       </c>
       <c r="J2" t="s">
-        <v>242</v>
+        <v>156</v>
       </c>
       <c r="K2" t="s">
-        <v>243</v>
+        <v>157</v>
       </c>
       <c r="L2" t="s">
-        <v>244</v>
+        <v>158</v>
       </c>
       <c r="M2" t="s">
-        <v>245</v>
+        <v>159</v>
       </c>
       <c r="N2" t="s">
-        <v>246</v>
+        <v>160</v>
       </c>
       <c r="O2" t="s">
-        <v>247</v>
+        <v>161</v>
       </c>
       <c r="P2" t="s">
-        <v>248</v>
+        <v>162</v>
       </c>
       <c r="Q2" t="s">
-        <v>249</v>
+        <v>163</v>
       </c>
       <c r="R2" t="s">
-        <v>250</v>
+        <v>164</v>
       </c>
       <c r="S2" t="s">
-        <v>251</v>
+        <v>165</v>
       </c>
       <c r="T2" t="s">
-        <v>252</v>
+        <v>166</v>
       </c>
       <c r="U2" t="s">
-        <v>253</v>
+        <v>167</v>
       </c>
       <c r="V2" t="s">
-        <v>254</v>
+        <v>168</v>
       </c>
       <c r="W2" t="s">
-        <v>255</v>
+        <v>169</v>
       </c>
       <c r="X2" t="s">
-        <v>256</v>
+        <v>170</v>
       </c>
       <c r="Y2" t="s">
-        <v>257</v>
+        <v>171</v>
       </c>
       <c r="Z2" t="s">
-        <v>258</v>
+        <v>172</v>
       </c>
       <c r="AA2" t="s">
-        <v>259</v>
+        <v>173</v>
       </c>
       <c r="AB2" t="s">
-        <v>260</v>
+        <v>174</v>
       </c>
       <c r="AC2" t="s">
-        <v>261</v>
+        <v>175</v>
       </c>
       <c r="AD2" t="s">
-        <v>262</v>
+        <v>176</v>
       </c>
       <c r="AE2" t="s">
-        <v>263</v>
+        <v>177</v>
       </c>
       <c r="AF2" t="s">
-        <v>264</v>
+        <v>178</v>
       </c>
       <c r="AG2" t="s">
-        <v>265</v>
+        <v>179</v>
       </c>
       <c r="AH2" t="s">
-        <v>266</v>
+        <v>180</v>
       </c>
       <c r="AI2" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="AJ2" t="s">
-        <v>268</v>
+        <v>182</v>
       </c>
       <c r="AK2" t="s">
-        <v>269</v>
+        <v>183</v>
       </c>
       <c r="AL2" t="s">
-        <v>270</v>
+        <v>184</v>
       </c>
       <c r="AM2" t="s">
-        <v>271</v>
+        <v>185</v>
       </c>
       <c r="AN2" t="s">
-        <v>272</v>
+        <v>186</v>
       </c>
       <c r="AO2" t="s">
-        <v>273</v>
+        <v>187</v>
       </c>
       <c r="AP2" t="s">
-        <v>274</v>
+        <v>188</v>
       </c>
       <c r="AQ2" t="s">
-        <v>275</v>
+        <v>189</v>
       </c>
       <c r="AR2" t="s">
-        <v>276</v>
+        <v>190</v>
       </c>
       <c r="AS2" t="s">
-        <v>277</v>
+        <v>191</v>
       </c>
       <c r="AT2" t="s">
-        <v>278</v>
+        <v>192</v>
       </c>
       <c r="AU2" t="s">
-        <v>279</v>
+        <v>193</v>
       </c>
       <c r="AV2" t="s">
-        <v>280</v>
+        <v>194</v>
       </c>
       <c r="AW2" t="s">
-        <v>281</v>
+        <v>195</v>
       </c>
       <c r="AX2" t="s">
-        <v>215</v>
+        <v>129</v>
       </c>
       <c r="AY2" t="s">
-        <v>282</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="G3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H3" t="s">
+        <v>221</v>
+      </c>
+      <c r="I3" t="s">
+        <v>155</v>
+      </c>
+      <c r="J3" t="s">
+        <v>222</v>
+      </c>
+      <c r="K3" t="s">
+        <v>157</v>
+      </c>
+      <c r="L3" t="s">
+        <v>223</v>
+      </c>
+      <c r="M3" t="s">
+        <v>159</v>
+      </c>
+      <c r="N3" t="s">
+        <v>160</v>
+      </c>
+      <c r="O3" t="s">
+        <v>224</v>
+      </c>
+      <c r="P3" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>225</v>
+      </c>
+      <c r="R3" t="s">
+        <v>164</v>
+      </c>
+      <c r="S3" t="s">
+        <v>226</v>
+      </c>
+      <c r="T3" t="s">
+        <v>166</v>
+      </c>
+      <c r="U3" t="s">
+        <v>227</v>
+      </c>
+      <c r="V3" t="s">
+        <v>168</v>
+      </c>
+      <c r="W3" t="s">
+        <v>228</v>
+      </c>
+      <c r="X3" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>231</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>176</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>233</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>235</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>236</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>237</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>238</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>190</v>
+      </c>
+      <c r="AS3" t="s">
         <v>239</v>
       </c>
-      <c r="H3" t="s">
-        <v>331</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="AT3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>240</v>
+      </c>
+      <c r="AV3" t="s">
         <v>241</v>
       </c>
-      <c r="J3" t="s">
-        <v>332</v>
-      </c>
-      <c r="K3" t="s">
-        <v>243</v>
-      </c>
-      <c r="L3" t="s">
-        <v>333</v>
-      </c>
-      <c r="M3" t="s">
-        <v>245</v>
-      </c>
-      <c r="N3" t="s">
-        <v>246</v>
-      </c>
-      <c r="O3" t="s">
-        <v>334</v>
-      </c>
-      <c r="P3" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>335</v>
-      </c>
-      <c r="R3" t="s">
-        <v>250</v>
-      </c>
-      <c r="S3" t="s">
-        <v>336</v>
-      </c>
-      <c r="T3" t="s">
-        <v>252</v>
-      </c>
-      <c r="U3" t="s">
-        <v>337</v>
-      </c>
-      <c r="V3" t="s">
-        <v>254</v>
-      </c>
-      <c r="W3" t="s">
-        <v>338</v>
-      </c>
-      <c r="X3" t="s">
-        <v>256</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>339</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>258</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>340</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>260</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>341</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>262</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>342</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>264</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>343</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>266</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>344</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>268</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>345</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>270</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>346</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>272</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>347</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>274</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>348</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>276</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>349</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>278</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>350</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>351</v>
-      </c>
       <c r="AW3" t="s">
-        <v>281</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>352</v>
+        <v>242</v>
       </c>
       <c r="F4" t="s">
-        <v>352</v>
+        <v>242</v>
       </c>
       <c r="G4" t="s">
-        <v>352</v>
+        <v>242</v>
       </c>
       <c r="H4" t="s">
-        <v>352</v>
+        <v>242</v>
       </c>
       <c r="I4" t="s">
-        <v>352</v>
+        <v>242</v>
       </c>
       <c r="J4" t="s">
-        <v>352</v>
+        <v>242</v>
       </c>
       <c r="K4" t="s">
-        <v>352</v>
+        <v>242</v>
       </c>
       <c r="L4" t="s">
-        <v>352</v>
+        <v>242</v>
       </c>
       <c r="M4" t="s">
-        <v>352</v>
+        <v>242</v>
       </c>
       <c r="N4" t="s">
-        <v>352</v>
+        <v>242</v>
       </c>
       <c r="O4" t="s">
-        <v>352</v>
+        <v>242</v>
       </c>
       <c r="P4" t="s">
-        <v>352</v>
+        <v>242</v>
       </c>
       <c r="Q4" t="s">
-        <v>352</v>
+        <v>242</v>
       </c>
       <c r="R4" t="s">
-        <v>352</v>
+        <v>242</v>
       </c>
       <c r="S4" t="s">
-        <v>352</v>
+        <v>242</v>
       </c>
       <c r="T4" t="s">
-        <v>352</v>
+        <v>242</v>
       </c>
       <c r="U4" t="s">
-        <v>352</v>
+        <v>242</v>
       </c>
       <c r="V4" t="s">
-        <v>352</v>
+        <v>242</v>
       </c>
       <c r="W4" t="s">
-        <v>352</v>
+        <v>242</v>
       </c>
       <c r="X4" t="s">
-        <v>352</v>
+        <v>242</v>
       </c>
       <c r="Y4" t="s">
-        <v>352</v>
+        <v>242</v>
       </c>
       <c r="Z4" t="s">
-        <v>352</v>
+        <v>242</v>
       </c>
       <c r="AA4" t="s">
-        <v>352</v>
+        <v>242</v>
       </c>
       <c r="AB4" t="s">
-        <v>352</v>
+        <v>242</v>
       </c>
       <c r="AC4" t="s">
-        <v>352</v>
+        <v>242</v>
       </c>
       <c r="AD4" t="s">
-        <v>352</v>
+        <v>242</v>
       </c>
       <c r="AE4" t="s">
-        <v>352</v>
+        <v>242</v>
       </c>
       <c r="AF4" t="s">
-        <v>352</v>
+        <v>242</v>
       </c>
       <c r="AG4" t="s">
-        <v>352</v>
+        <v>242</v>
       </c>
       <c r="AH4" t="s">
-        <v>352</v>
+        <v>242</v>
       </c>
       <c r="AI4" t="s">
-        <v>352</v>
+        <v>242</v>
       </c>
       <c r="AJ4" t="s">
-        <v>352</v>
+        <v>242</v>
       </c>
       <c r="AK4" t="s">
-        <v>352</v>
+        <v>242</v>
       </c>
       <c r="AL4" t="s">
-        <v>352</v>
+        <v>242</v>
       </c>
       <c r="AM4" t="s">
-        <v>352</v>
+        <v>242</v>
       </c>
       <c r="AN4" t="s">
-        <v>352</v>
+        <v>242</v>
       </c>
       <c r="AO4" t="s">
-        <v>352</v>
+        <v>242</v>
       </c>
       <c r="AP4" t="s">
-        <v>352</v>
+        <v>242</v>
       </c>
       <c r="AQ4" t="s">
-        <v>352</v>
+        <v>242</v>
       </c>
       <c r="AR4" t="s">
-        <v>352</v>
+        <v>242</v>
       </c>
       <c r="AS4" t="s">
-        <v>352</v>
+        <v>242</v>
       </c>
       <c r="AT4" t="s">
-        <v>352</v>
+        <v>242</v>
       </c>
       <c r="AU4" t="s">
-        <v>352</v>
+        <v>242</v>
       </c>
       <c r="AV4" t="s">
-        <v>352</v>
+        <v>242</v>
       </c>
       <c r="AW4" t="s">
-        <v>352</v>
+        <v>242</v>
       </c>
       <c r="AX4" t="s">
-        <v>352</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.25">
@@ -4716,145 +4801,145 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="F5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="G5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="H5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="I5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="J5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="K5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="L5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="M5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="N5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="O5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="P5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="Q5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="R5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="S5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="T5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="U5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="V5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="W5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="X5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="Y5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="Z5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AA5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AB5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AC5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AD5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AE5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AF5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AG5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AH5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AI5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AJ5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AK5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AL5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AM5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AN5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AO5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AP5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AQ5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AR5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AS5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AT5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AU5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AV5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AW5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AX5" t="s">
-        <v>325</v>
+        <v>217</v>
       </c>
       <c r="AY5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -5024,371 +5109,371 @@
         <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>237</v>
+        <v>151</v>
       </c>
       <c r="F2" t="s">
-        <v>238</v>
+        <v>152</v>
       </c>
       <c r="G2" t="s">
-        <v>239</v>
+        <v>153</v>
       </c>
       <c r="H2" t="s">
-        <v>243</v>
+        <v>157</v>
       </c>
       <c r="I2" t="s">
-        <v>277</v>
+        <v>191</v>
       </c>
       <c r="J2" t="s">
-        <v>278</v>
+        <v>192</v>
       </c>
       <c r="K2" t="s">
-        <v>244</v>
+        <v>158</v>
       </c>
       <c r="L2" t="s">
-        <v>245</v>
+        <v>159</v>
       </c>
       <c r="M2" t="s">
-        <v>279</v>
+        <v>193</v>
       </c>
       <c r="N2" t="s">
-        <v>246</v>
+        <v>160</v>
       </c>
       <c r="O2" t="s">
-        <v>247</v>
+        <v>161</v>
       </c>
       <c r="P2" t="s">
-        <v>248</v>
+        <v>162</v>
       </c>
       <c r="Q2" t="s">
-        <v>249</v>
+        <v>163</v>
       </c>
       <c r="R2" t="s">
-        <v>250</v>
+        <v>164</v>
       </c>
       <c r="S2" t="s">
-        <v>251</v>
+        <v>165</v>
       </c>
       <c r="T2" t="s">
-        <v>252</v>
+        <v>166</v>
       </c>
       <c r="U2" t="s">
-        <v>253</v>
+        <v>167</v>
       </c>
       <c r="V2" t="s">
-        <v>254</v>
+        <v>168</v>
       </c>
       <c r="W2" t="s">
-        <v>255</v>
+        <v>169</v>
       </c>
       <c r="X2" t="s">
-        <v>256</v>
+        <v>170</v>
       </c>
       <c r="Y2" t="s">
-        <v>280</v>
+        <v>194</v>
       </c>
       <c r="Z2" t="s">
-        <v>281</v>
+        <v>195</v>
       </c>
       <c r="AA2" t="s">
-        <v>257</v>
+        <v>171</v>
       </c>
       <c r="AB2" t="s">
-        <v>258</v>
+        <v>172</v>
       </c>
       <c r="AC2" t="s">
-        <v>259</v>
+        <v>173</v>
       </c>
       <c r="AD2" t="s">
-        <v>260</v>
+        <v>174</v>
       </c>
       <c r="AE2" t="s">
-        <v>261</v>
+        <v>175</v>
       </c>
       <c r="AF2" t="s">
-        <v>262</v>
+        <v>176</v>
       </c>
       <c r="AG2" t="s">
-        <v>263</v>
+        <v>177</v>
       </c>
       <c r="AH2" t="s">
-        <v>264</v>
+        <v>178</v>
       </c>
       <c r="AI2" t="s">
-        <v>265</v>
+        <v>179</v>
       </c>
       <c r="AJ2" t="s">
-        <v>266</v>
+        <v>180</v>
       </c>
       <c r="AK2" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="AL2" t="s">
-        <v>268</v>
+        <v>182</v>
       </c>
       <c r="AM2" t="s">
-        <v>269</v>
+        <v>183</v>
       </c>
       <c r="AN2" t="s">
-        <v>270</v>
+        <v>184</v>
       </c>
       <c r="AO2" t="s">
-        <v>271</v>
+        <v>185</v>
       </c>
       <c r="AP2" t="s">
-        <v>272</v>
+        <v>186</v>
       </c>
       <c r="AQ2" t="s">
-        <v>273</v>
+        <v>187</v>
       </c>
       <c r="AR2" t="s">
-        <v>274</v>
+        <v>188</v>
       </c>
       <c r="AS2" t="s">
-        <v>242</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="G3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H3" t="s">
+        <v>157</v>
+      </c>
+      <c r="I3" t="s">
         <v>239</v>
       </c>
-      <c r="H3" t="s">
-        <v>243</v>
-      </c>
-      <c r="I3" t="s">
-        <v>349</v>
-      </c>
       <c r="J3" t="s">
-        <v>278</v>
+        <v>192</v>
       </c>
       <c r="K3" t="s">
-        <v>333</v>
+        <v>223</v>
       </c>
       <c r="L3" t="s">
-        <v>245</v>
+        <v>159</v>
       </c>
       <c r="M3" t="s">
-        <v>350</v>
+        <v>240</v>
       </c>
       <c r="N3" t="s">
-        <v>246</v>
+        <v>160</v>
       </c>
       <c r="O3" t="s">
-        <v>334</v>
+        <v>224</v>
       </c>
       <c r="P3" t="s">
-        <v>248</v>
+        <v>162</v>
       </c>
       <c r="Q3" t="s">
-        <v>335</v>
+        <v>225</v>
       </c>
       <c r="R3" t="s">
-        <v>250</v>
+        <v>164</v>
       </c>
       <c r="S3" t="s">
-        <v>336</v>
+        <v>226</v>
       </c>
       <c r="T3" t="s">
-        <v>252</v>
+        <v>166</v>
       </c>
       <c r="U3" t="s">
-        <v>337</v>
+        <v>227</v>
       </c>
       <c r="V3" t="s">
-        <v>254</v>
+        <v>168</v>
       </c>
       <c r="W3" t="s">
-        <v>338</v>
+        <v>228</v>
       </c>
       <c r="X3" t="s">
-        <v>256</v>
+        <v>170</v>
       </c>
       <c r="Y3" t="s">
-        <v>351</v>
+        <v>241</v>
       </c>
       <c r="Z3" t="s">
-        <v>281</v>
+        <v>195</v>
       </c>
       <c r="AA3" t="s">
-        <v>339</v>
+        <v>229</v>
       </c>
       <c r="AB3" t="s">
-        <v>258</v>
+        <v>172</v>
       </c>
       <c r="AC3" t="s">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="AD3" t="s">
-        <v>260</v>
+        <v>174</v>
       </c>
       <c r="AE3" t="s">
-        <v>341</v>
+        <v>231</v>
       </c>
       <c r="AF3" t="s">
-        <v>262</v>
+        <v>176</v>
       </c>
       <c r="AG3" t="s">
-        <v>342</v>
+        <v>232</v>
       </c>
       <c r="AH3" t="s">
-        <v>264</v>
+        <v>178</v>
       </c>
       <c r="AI3" t="s">
-        <v>343</v>
+        <v>233</v>
       </c>
       <c r="AJ3" t="s">
-        <v>266</v>
+        <v>180</v>
       </c>
       <c r="AK3" t="s">
-        <v>344</v>
+        <v>234</v>
       </c>
       <c r="AL3" t="s">
-        <v>268</v>
+        <v>182</v>
       </c>
       <c r="AM3" t="s">
-        <v>345</v>
+        <v>235</v>
       </c>
       <c r="AN3" t="s">
-        <v>270</v>
+        <v>184</v>
       </c>
       <c r="AO3" t="s">
-        <v>346</v>
+        <v>236</v>
       </c>
       <c r="AP3" t="s">
-        <v>272</v>
+        <v>186</v>
       </c>
       <c r="AQ3" t="s">
-        <v>347</v>
+        <v>237</v>
       </c>
       <c r="AR3" t="s">
-        <v>274</v>
+        <v>188</v>
       </c>
       <c r="AS3" t="s">
-        <v>332</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
-        <v>353</v>
+        <v>243</v>
       </c>
       <c r="G4" t="s">
-        <v>353</v>
+        <v>243</v>
       </c>
       <c r="H4" t="s">
-        <v>353</v>
+        <v>243</v>
       </c>
       <c r="I4" t="s">
-        <v>353</v>
+        <v>243</v>
       </c>
       <c r="J4" t="s">
-        <v>353</v>
+        <v>243</v>
       </c>
       <c r="K4" t="s">
-        <v>353</v>
+        <v>243</v>
       </c>
       <c r="L4" t="s">
-        <v>353</v>
+        <v>243</v>
       </c>
       <c r="M4" t="s">
-        <v>353</v>
+        <v>243</v>
       </c>
       <c r="N4" t="s">
-        <v>353</v>
+        <v>243</v>
       </c>
       <c r="O4" t="s">
-        <v>353</v>
+        <v>243</v>
       </c>
       <c r="P4" t="s">
-        <v>353</v>
+        <v>243</v>
       </c>
       <c r="Q4" t="s">
-        <v>353</v>
+        <v>243</v>
       </c>
       <c r="R4" t="s">
-        <v>353</v>
+        <v>243</v>
       </c>
       <c r="S4" t="s">
-        <v>353</v>
+        <v>243</v>
       </c>
       <c r="T4" t="s">
-        <v>353</v>
+        <v>243</v>
       </c>
       <c r="U4" t="s">
-        <v>353</v>
+        <v>243</v>
       </c>
       <c r="V4" t="s">
-        <v>353</v>
+        <v>243</v>
       </c>
       <c r="W4" t="s">
-        <v>353</v>
+        <v>243</v>
       </c>
       <c r="X4" t="s">
-        <v>353</v>
+        <v>243</v>
       </c>
       <c r="Y4" t="s">
-        <v>353</v>
+        <v>243</v>
       </c>
       <c r="Z4" t="s">
-        <v>353</v>
+        <v>243</v>
       </c>
       <c r="AA4" t="s">
-        <v>353</v>
+        <v>243</v>
       </c>
       <c r="AB4" t="s">
-        <v>353</v>
+        <v>243</v>
       </c>
       <c r="AC4" t="s">
-        <v>353</v>
+        <v>243</v>
       </c>
       <c r="AD4" t="s">
-        <v>353</v>
+        <v>243</v>
       </c>
       <c r="AE4" t="s">
-        <v>353</v>
+        <v>243</v>
       </c>
       <c r="AF4" t="s">
-        <v>353</v>
+        <v>243</v>
       </c>
       <c r="AG4" t="s">
-        <v>353</v>
+        <v>243</v>
       </c>
       <c r="AH4" t="s">
-        <v>353</v>
+        <v>243</v>
       </c>
       <c r="AI4" t="s">
-        <v>353</v>
+        <v>243</v>
       </c>
       <c r="AJ4" t="s">
-        <v>353</v>
+        <v>243</v>
       </c>
       <c r="AK4" t="s">
-        <v>353</v>
+        <v>243</v>
       </c>
       <c r="AL4" t="s">
-        <v>353</v>
+        <v>243</v>
       </c>
       <c r="AM4" t="s">
-        <v>353</v>
+        <v>243</v>
       </c>
       <c r="AN4" t="s">
-        <v>353</v>
+        <v>243</v>
       </c>
       <c r="AO4" t="s">
-        <v>353</v>
+        <v>243</v>
       </c>
       <c r="AP4" t="s">
-        <v>353</v>
+        <v>243</v>
       </c>
       <c r="AQ4" t="s">
-        <v>353</v>
+        <v>243</v>
       </c>
       <c r="AR4" t="s">
-        <v>353</v>
+        <v>243</v>
       </c>
       <c r="AS4" t="s">
-        <v>353</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.25">
@@ -5405,127 +5490,127 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>325</v>
+        <v>217</v>
       </c>
       <c r="F5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="G5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="H5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="I5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="J5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="K5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="L5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="M5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="N5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="O5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="P5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="Q5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="R5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="S5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="T5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="U5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="V5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="W5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="X5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="Y5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="Z5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AA5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AB5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AC5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AD5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AE5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AF5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AG5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AH5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AI5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AJ5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AK5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AL5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AM5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AN5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AO5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AP5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AQ5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AR5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="AS5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -5590,62 +5675,62 @@
         <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>283</v>
+        <v>197</v>
       </c>
       <c r="F2" t="s">
-        <v>284</v>
+        <v>198</v>
       </c>
       <c r="G2" t="s">
-        <v>222</v>
+        <v>136</v>
       </c>
       <c r="H2" t="s">
-        <v>285</v>
+        <v>199</v>
       </c>
       <c r="I2" t="s">
-        <v>219</v>
+        <v>133</v>
       </c>
       <c r="J2" t="s">
-        <v>286</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>283</v>
+        <v>197</v>
       </c>
       <c r="F3" t="s">
-        <v>321</v>
+        <v>213</v>
       </c>
       <c r="G3" t="s">
-        <v>222</v>
+        <v>136</v>
       </c>
       <c r="H3" t="s">
-        <v>323</v>
+        <v>215</v>
       </c>
       <c r="I3" t="s">
-        <v>219</v>
+        <v>133</v>
       </c>
       <c r="J3" t="s">
-        <v>322</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>354</v>
+        <v>244</v>
       </c>
       <c r="F4" t="s">
-        <v>354</v>
+        <v>244</v>
       </c>
       <c r="G4" t="s">
-        <v>354</v>
+        <v>244</v>
       </c>
       <c r="H4" t="s">
-        <v>354</v>
+        <v>244</v>
       </c>
       <c r="I4" t="s">
-        <v>354</v>
+        <v>244</v>
       </c>
       <c r="J4" t="s">
-        <v>354</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -5662,22 +5747,22 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="F5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="G5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="H5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="I5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="J5" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -5754,98 +5839,98 @@
         <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>287</v>
+        <v>201</v>
       </c>
       <c r="F2" t="s">
-        <v>288</v>
+        <v>202</v>
       </c>
       <c r="G2" t="s">
-        <v>289</v>
+        <v>203</v>
       </c>
       <c r="H2" t="s">
-        <v>290</v>
+        <v>204</v>
       </c>
       <c r="I2" t="s">
-        <v>291</v>
+        <v>205</v>
       </c>
       <c r="J2" t="s">
-        <v>292</v>
+        <v>206</v>
       </c>
       <c r="K2" t="s">
-        <v>293</v>
+        <v>207</v>
       </c>
       <c r="L2" t="s">
-        <v>294</v>
+        <v>208</v>
       </c>
       <c r="M2" t="s">
-        <v>295</v>
+        <v>209</v>
       </c>
       <c r="N2" t="s">
-        <v>296</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>287</v>
+        <v>201</v>
       </c>
       <c r="F3" t="s">
-        <v>355</v>
+        <v>245</v>
       </c>
       <c r="G3" t="s">
-        <v>289</v>
+        <v>203</v>
       </c>
       <c r="H3" t="s">
-        <v>356</v>
+        <v>246</v>
       </c>
       <c r="I3" t="s">
-        <v>291</v>
+        <v>205</v>
       </c>
       <c r="J3" t="s">
-        <v>357</v>
+        <v>247</v>
       </c>
       <c r="K3" t="s">
-        <v>293</v>
+        <v>207</v>
       </c>
       <c r="L3" t="s">
-        <v>358</v>
+        <v>248</v>
       </c>
       <c r="M3" t="s">
-        <v>295</v>
+        <v>209</v>
       </c>
       <c r="N3" t="s">
-        <v>359</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="F4" t="s">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="G4" t="s">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="H4" t="s">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="I4" t="s">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="J4" t="s">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="K4" t="s">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="L4" t="s">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="M4" t="s">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="N4" t="s">
-        <v>360</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -5862,34 +5947,34 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>361</v>
+        <v>251</v>
       </c>
       <c r="F5" t="s">
-        <v>361</v>
+        <v>251</v>
       </c>
       <c r="G5" t="s">
-        <v>361</v>
+        <v>251</v>
       </c>
       <c r="H5" t="s">
-        <v>361</v>
+        <v>251</v>
       </c>
       <c r="I5" t="s">
-        <v>361</v>
+        <v>251</v>
       </c>
       <c r="J5" t="s">
-        <v>361</v>
+        <v>251</v>
       </c>
       <c r="K5" t="s">
-        <v>361</v>
+        <v>251</v>
       </c>
       <c r="L5" t="s">
-        <v>361</v>
+        <v>251</v>
       </c>
       <c r="M5" t="s">
-        <v>361</v>
+        <v>251</v>
       </c>
       <c r="N5" t="s">
-        <v>361</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/header_files/spec_header.xlsx
+++ b/header_files/spec_header.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shann\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D232EA-16C4-4F81-9BB2-C143B5A33002}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571295ED-F155-4C80-8712-EA5D5D6A049D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="3360" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CARB" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="436">
   <si>
     <t>V1</t>
   </si>
@@ -1330,56 +1330,39 @@
     <t>pm_fb</t>
   </si>
   <si>
-    <t>oc1_fb</t>
-  </si>
-  <si>
-    <t>oc2_fb</t>
-  </si>
-  <si>
-    <t>oc3_fb</t>
-  </si>
-  <si>
-    <t>oc4_fb</t>
-  </si>
-  <si>
-    <t>poc_fb</t>
-  </si>
-  <si>
-    <t>oc_fb</t>
-  </si>
-  <si>
-    <t>ec_fb</t>
-  </si>
-  <si>
-    <t>ec2_fb</t>
-  </si>
-  <si>
-    <t>ec3_fb</t>
-  </si>
-  <si>
-    <t>tc_fb</t>
-  </si>
-  <si>
-    <t>oc_fb_mdl</t>
-  </si>
-  <si>
-    <t>ec_fb_mdl</t>
-  </si>
-  <si>
     <t>ammonia_mdl</t>
   </si>
   <si>
     <t>pm2_5</t>
+  </si>
+  <si>
+    <t>Sulphur Dioxide</t>
+  </si>
+  <si>
+    <t>Nitric Acid</t>
+  </si>
+  <si>
+    <t>poc_b</t>
+  </si>
+  <si>
+    <t>ec_b</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1389,6 +1372,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1408,14 +1402,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{697E4ECE-B1F1-4D31-BE6A-50B16C24990A}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{2B0E393B-EE46-451A-A513-BE39D9DB4CB3}"/>
+    <cellStyle name="Normal 4" xfId="1" xr:uid="{19BFB708-1189-443A-91EC-02FE39C09ECA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1711,8 +1711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AO21" sqref="AO21"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AN3" sqref="AN3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2158,40 +2158,40 @@
         <v>429</v>
       </c>
       <c r="AN3" t="s">
-        <v>430</v>
+        <v>270</v>
       </c>
       <c r="AO3" t="s">
-        <v>431</v>
+        <v>272</v>
       </c>
       <c r="AP3" t="s">
-        <v>432</v>
+        <v>274</v>
       </c>
       <c r="AQ3" t="s">
-        <v>433</v>
+        <v>276</v>
       </c>
       <c r="AR3" t="s">
         <v>434</v>
       </c>
       <c r="AU3" t="s">
+        <v>279</v>
+      </c>
+      <c r="AV3" t="s">
         <v>435</v>
       </c>
-      <c r="AV3" t="s">
-        <v>436</v>
-      </c>
       <c r="AW3" t="s">
-        <v>437</v>
+        <v>283</v>
       </c>
       <c r="AX3" t="s">
-        <v>438</v>
+        <v>285</v>
       </c>
       <c r="BA3" t="s">
-        <v>439</v>
+        <v>287</v>
       </c>
       <c r="BB3" t="s">
-        <v>440</v>
+        <v>289</v>
       </c>
       <c r="BC3" t="s">
-        <v>441</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.25">
@@ -2466,7 +2466,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -3819,7 +3819,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -3880,7 +3880,7 @@
         <v>141</v>
       </c>
       <c r="F3" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3922,7 +3922,7 @@
   <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3:U3"/>
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4077,7 +4077,13 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>443</v>
+        <v>431</v>
+      </c>
+      <c r="V3" t="s">
+        <v>433</v>
+      </c>
+      <c r="W3" t="s">
+        <v>432</v>
       </c>
       <c r="X3" t="s">
         <v>268</v>
@@ -4108,6 +4114,9 @@
       <c r="V4" t="s">
         <v>219</v>
       </c>
+      <c r="W4" t="s">
+        <v>219</v>
+      </c>
       <c r="X4" t="s">
         <v>219</v>
       </c>
@@ -4187,7 +4196,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
